--- a/usvi_sda_asvs_compare_summary-2025-01-15.xlsx
+++ b/usvi_sda_asvs_compare_summary-2025-01-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharongrim/projects/apprill/usvi_temporal/usvi_time/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0758EF-7A57-4C4F-8F6A-BDD6A4FDD213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AA9D57-45B5-584A-83B1-42B1C98C0286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="2560" windowWidth="27640" windowHeight="16940" xr2:uid="{BCD473D3-E9B1-AA44-B0F8-3AF283CD9871}"/>
+    <workbookView xWindow="960" yWindow="1720" windowWidth="27640" windowHeight="16940" xr2:uid="{BCD473D3-E9B1-AA44-B0F8-3AF283CD9871}"/>
   </bookViews>
   <sheets>
     <sheet name="usvi_sda_asvs_compare_summary-2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5024" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5067" uniqueCount="714">
   <si>
     <t>asv_id</t>
   </si>
@@ -1793,15 +1793,9 @@
     <t>mosselii</t>
   </si>
   <si>
-    <t>ASV_00391</t>
-  </si>
-  <si>
     <t>ASV_00821</t>
   </si>
   <si>
-    <t>ASV_01061</t>
-  </si>
-  <si>
     <t>ASV_00028</t>
   </si>
   <si>
@@ -2175,6 +2169,12 @@
   </si>
   <si>
     <t>ML602J-51</t>
+  </si>
+  <si>
+    <t>ASV_00322</t>
+  </si>
+  <si>
+    <t>ASV_00501</t>
   </si>
 </sst>
 </file>
@@ -3045,21 +3045,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4847979E-4142-FC41-80AC-6407C28B2901}">
-  <dimension ref="A1:R398"/>
+  <dimension ref="A1:R399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3070,25 +3069,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>562</v>
@@ -3115,50 +3114,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B2">
-        <f>COUNTA(B3:B398)</f>
+      <c r="B2" s="1">
+        <f>COUNTA(B3:B399)</f>
         <v>325</v>
       </c>
-      <c r="C2">
-        <f>COUNTA(C3:C398)</f>
+      <c r="C2" s="1">
+        <f>COUNTA(C3:C399)</f>
         <v>311</v>
       </c>
-      <c r="D2">
-        <f>COUNTA(D3:D398)</f>
+      <c r="D2" s="1">
+        <f>COUNTA(D3:D399)</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="1">
+        <f>COUNTA(E3:E399)</f>
+        <v>268</v>
+      </c>
+      <c r="F2" s="1">
+        <f>COUNTA(F3:F399)</f>
         <v>264</v>
       </c>
-      <c r="E2">
-        <f>COUNTA(E3:E398)</f>
-        <v>263</v>
-      </c>
-      <c r="F2">
-        <f>COUNTA(F3:F398)</f>
+      <c r="G2" s="1">
+        <f>COUNTA(G3:G399)</f>
+        <v>61</v>
+      </c>
+      <c r="H2" s="1">
+        <f>COUNTA(H3:H399)</f>
         <v>60</v>
       </c>
-      <c r="G2">
-        <f>COUNTA(G3:G398)</f>
+      <c r="I2" s="1">
+        <f>COUNTA(I3:I399)</f>
         <v>78</v>
       </c>
-      <c r="H2">
-        <f>COUNTA(H3:H398)</f>
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <f>COUNTA(I3:I398)</f>
-        <v>64</v>
-      </c>
-      <c r="J2">
-        <f>COUNTA(J3:J398)</f>
-        <v>57</v>
-      </c>
-      <c r="K2">
-        <f>COUNTIF(K3:K398, "corncob")</f>
-        <v>15</v>
-      </c>
+      <c r="J2" s="1">
+        <f>COUNTA(J3:J399)</f>
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <f>COUNTIF(K3:K399, "all")</f>
+        <v>192</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3170,7 +3176,10 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
       <c r="K3" t="s">
@@ -3208,16 +3217,16 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
         <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -3261,14 +3270,14 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
       <c r="G5" t="s">
         <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
         <v>563</v>
@@ -3312,13 +3321,13 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
         <v>563</v>
@@ -3356,7 +3365,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -3364,7 +3373,10 @@
       <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
         <v>18</v>
       </c>
       <c r="K7" t="s">
@@ -3408,14 +3420,14 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
       <c r="G8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s">
         <v>563</v>
@@ -3459,10 +3471,10 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
       </c>
       <c r="K9" t="s">
         <v>563</v>
@@ -3499,13 +3511,13 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" t="s">
         <v>25</v>
       </c>
       <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
@@ -3550,7 +3562,7 @@
         <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -3559,10 +3571,10 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
         <v>563</v>
@@ -3608,11 +3620,11 @@
       <c r="F12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
         <v>563</v>
@@ -3649,13 +3661,13 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="K13" t="s">
@@ -3694,7 +3706,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -3702,7 +3714,10 @@
       <c r="F14" t="s">
         <v>25</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s">
         <v>18</v>
       </c>
       <c r="K14" t="s">
@@ -3740,10 +3755,10 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
       <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
         <v>25</v>
       </c>
       <c r="K15" t="s">
@@ -3781,10 +3796,10 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="K16" t="s">
@@ -3823,13 +3838,13 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" t="s">
-        <v>26</v>
+      <c r="F17" t="s">
+        <v>25</v>
       </c>
       <c r="K17" t="s">
         <v>563</v>
@@ -3866,13 +3881,13 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
       <c r="F18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
         <v>18</v>
       </c>
       <c r="K18" t="s">
@@ -3910,13 +3925,13 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="H19" t="s">
+      <c r="F19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
         <v>26</v>
       </c>
       <c r="K19" t="s">
@@ -3954,10 +3969,10 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
       <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
         <v>18</v>
       </c>
       <c r="K20" t="s">
@@ -3995,16 +4010,16 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
         <v>18</v>
       </c>
       <c r="K21" t="s">
@@ -4042,10 +4057,13 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>18</v>
       </c>
       <c r="K22" t="s">
@@ -4084,9 +4102,12 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
         <v>25</v>
       </c>
       <c r="K23" t="s">
@@ -4134,13 +4155,13 @@
         <v>25</v>
       </c>
       <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K24" t="s">
         <v>563</v>
@@ -4183,11 +4204,11 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
         <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K25" t="s">
         <v>563</v>
@@ -4225,12 +4246,15 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" t="s">
         <v>18</v>
       </c>
       <c r="K26" t="s">
@@ -4269,12 +4293,15 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" t="s">
         <v>25</v>
       </c>
       <c r="K27" t="s">
@@ -4313,12 +4340,15 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" t="s">
         <v>25</v>
       </c>
       <c r="K28" t="s">
@@ -4348,40 +4378,40 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>587</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" t="s">
+        <v>48</v>
+      </c>
+      <c r="N29" t="s">
+        <v>48</v>
+      </c>
+      <c r="O29" t="s">
+        <v>588</v>
+      </c>
+      <c r="P29" t="s">
         <v>589</v>
       </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29" t="s">
-        <v>48</v>
-      </c>
-      <c r="O29" t="s">
+      <c r="Q29" t="s">
         <v>590</v>
       </c>
-      <c r="P29" t="s">
+      <c r="R29" t="s">
         <v>591</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>592</v>
-      </c>
-      <c r="R29" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -4394,16 +4424,16 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
       <c r="E30" t="s">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
         <v>18</v>
       </c>
       <c r="K30" t="s">
@@ -4441,10 +4471,10 @@
       <c r="C31" t="s">
         <v>18</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
         <v>25</v>
       </c>
       <c r="K31" t="s">
@@ -4482,16 +4512,16 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
       <c r="E32" t="s">
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
         <v>18</v>
       </c>
       <c r="K32" t="s">
@@ -4535,11 +4565,11 @@
       <c r="E33" t="s">
         <v>25</v>
       </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
         <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K33" t="s">
         <v>563</v>
@@ -4576,10 +4606,10 @@
       <c r="C34" t="s">
         <v>18</v>
       </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
       <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
         <v>18</v>
       </c>
       <c r="K34" t="s">
@@ -4623,14 +4653,14 @@
       <c r="E35" t="s">
         <v>25</v>
       </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
       <c r="G35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K35" t="s">
         <v>563</v>
@@ -4668,16 +4698,16 @@
         <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" t="s">
-        <v>18</v>
+      <c r="F36" t="s">
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K36" t="s">
         <v>563</v>
@@ -4715,13 +4745,13 @@
         <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="I37" t="s">
-        <v>26</v>
+      <c r="F37" t="s">
+        <v>25</v>
       </c>
       <c r="K37" t="s">
         <v>563</v>
@@ -4765,13 +4795,13 @@
         <v>25</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K38" t="s">
         <v>563</v>
@@ -4808,13 +4838,13 @@
       <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
       <c r="E39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
         <v>26</v>
       </c>
       <c r="K39" t="s">
@@ -4853,7 +4883,7 @@
         <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
         <v>18</v>
@@ -4861,11 +4891,11 @@
       <c r="F40" t="s">
         <v>18</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
         <v>563</v>
@@ -4909,16 +4939,16 @@
         <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
-      </c>
-      <c r="J41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K41" t="s">
         <v>563</v>
@@ -4962,16 +4992,16 @@
         <v>25</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G42" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K42" t="s">
         <v>563</v>
@@ -5009,12 +5039,15 @@
         <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
         <v>25</v>
       </c>
-      <c r="G43" t="s">
+      <c r="F43" t="s">
+        <v>25</v>
+      </c>
+      <c r="I43" t="s">
         <v>25</v>
       </c>
       <c r="K43" t="s">
@@ -5053,19 +5086,19 @@
         <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
       </c>
+      <c r="F44" t="s">
+        <v>25</v>
+      </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K44" t="s">
         <v>563</v>
@@ -5108,14 +5141,14 @@
       <c r="E45" t="s">
         <v>25</v>
       </c>
+      <c r="F45" t="s">
+        <v>25</v>
+      </c>
       <c r="G45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K45" t="s">
         <v>563</v>
@@ -5153,15 +5186,18 @@
         <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
         <v>25</v>
       </c>
       <c r="K46" t="s">
@@ -5199,13 +5235,13 @@
       <c r="C47" t="s">
         <v>25</v>
       </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
       <c r="E47" t="s">
         <v>25</v>
       </c>
       <c r="F47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
         <v>18</v>
       </c>
       <c r="K47" t="s">
@@ -5243,17 +5279,14 @@
       <c r="C48" t="s">
         <v>25</v>
       </c>
-      <c r="D48" t="s">
-        <v>25</v>
-      </c>
       <c r="E48" t="s">
         <v>25</v>
       </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
-      <c r="H48" t="s">
-        <v>18</v>
+      <c r="F48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" t="s">
+        <v>25</v>
       </c>
       <c r="K48" t="s">
         <v>563</v>
@@ -5287,13 +5320,13 @@
       <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
       <c r="E49" t="s">
         <v>26</v>
       </c>
       <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="K49" t="s">
@@ -5332,15 +5365,18 @@
         <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
         <v>25</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
         <v>18</v>
       </c>
       <c r="K50" t="s">
@@ -5384,11 +5420,11 @@
       <c r="E51" t="s">
         <v>25</v>
       </c>
-      <c r="G51" t="s">
-        <v>18</v>
+      <c r="F51" t="s">
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K51" t="s">
         <v>563</v>
@@ -5425,13 +5461,13 @@
       <c r="C52" t="s">
         <v>25</v>
       </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
       <c r="E52" t="s">
         <v>18</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
         <v>18</v>
       </c>
       <c r="K52" t="s">
@@ -5469,10 +5505,10 @@
       <c r="C53" t="s">
         <v>25</v>
       </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
       <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
         <v>25</v>
       </c>
       <c r="K53" t="s">
@@ -5510,10 +5546,10 @@
       <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
         <v>26</v>
       </c>
       <c r="K54" t="s">
@@ -5551,10 +5587,10 @@
       <c r="C55" t="s">
         <v>26</v>
       </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
       <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
         <v>26</v>
       </c>
       <c r="K55" t="s">
@@ -5592,16 +5628,13 @@
       <c r="C56" t="s">
         <v>25</v>
       </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
         <v>18</v>
       </c>
       <c r="K56" t="s">
@@ -5639,13 +5672,13 @@
       <c r="C57" t="s">
         <v>18</v>
       </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
       <c r="E57" t="s">
-        <v>25</v>
-      </c>
-      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
         <v>26</v>
       </c>
       <c r="K57" t="s">
@@ -5683,13 +5716,13 @@
       <c r="C58" t="s">
         <v>25</v>
       </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
       <c r="E58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
         <v>26</v>
       </c>
       <c r="K58" t="s">
@@ -5731,10 +5764,10 @@
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s">
-        <v>18</v>
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
       </c>
       <c r="K59" t="s">
         <v>563</v>
@@ -5771,10 +5804,10 @@
       <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="D60" t="s">
-        <v>25</v>
-      </c>
       <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
         <v>25</v>
       </c>
       <c r="K60" t="s">
@@ -5818,11 +5851,11 @@
       <c r="E61" t="s">
         <v>25</v>
       </c>
-      <c r="G61" t="s">
-        <v>18</v>
+      <c r="F61" t="s">
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K61" t="s">
         <v>563</v>
@@ -5866,13 +5899,13 @@
         <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
+        <v>25</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K62" t="s">
         <v>563</v>
@@ -5910,16 +5943,19 @@
         <v>25</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
         <v>25</v>
       </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
       <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" t="s">
         <v>26</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
       </c>
       <c r="K63" t="s">
         <v>563</v>
@@ -5957,19 +5993,19 @@
         <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
         <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>26</v>
-      </c>
-      <c r="J64" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K64" t="s">
         <v>563</v>
@@ -6006,10 +6042,10 @@
       <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="I65" t="s">
+      <c r="D65" t="s">
         <v>26</v>
       </c>
-      <c r="J65" t="s">
+      <c r="G65" t="s">
         <v>26</v>
       </c>
       <c r="K65" t="s">
@@ -6047,17 +6083,17 @@
       <c r="C66" t="s">
         <v>18</v>
       </c>
-      <c r="D66" t="s">
-        <v>18</v>
-      </c>
       <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
         <v>25</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" t="s">
         <v>26</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
       </c>
       <c r="K66" t="s">
         <v>563</v>
@@ -6094,16 +6130,16 @@
       <c r="C67" t="s">
         <v>18</v>
       </c>
-      <c r="D67" t="s">
-        <v>18</v>
-      </c>
       <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
         <v>18</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
       </c>
-      <c r="J67" t="s">
+      <c r="I67" t="s">
         <v>26</v>
       </c>
       <c r="K67" t="s">
@@ -6147,14 +6183,14 @@
       <c r="E68" t="s">
         <v>25</v>
       </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
       <c r="G68" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" t="s">
         <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J68" t="s">
         <v>26</v>
@@ -6194,13 +6230,10 @@
       <c r="C69" t="s">
         <v>18</v>
       </c>
-      <c r="D69" t="s">
-        <v>25</v>
-      </c>
       <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
         <v>18</v>
       </c>
       <c r="K69" t="s">
@@ -6239,19 +6272,19 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" t="s">
         <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
-      </c>
-      <c r="J70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K70" t="s">
         <v>563</v>
@@ -6288,10 +6321,10 @@
       <c r="C71" t="s">
         <v>25</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>26</v>
       </c>
-      <c r="F71" t="s">
+      <c r="H71" t="s">
         <v>18</v>
       </c>
       <c r="K71" t="s">
@@ -6330,13 +6363,13 @@
         <v>25</v>
       </c>
       <c r="D72" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E72" t="s">
         <v>25</v>
       </c>
-      <c r="I72" t="s">
-        <v>26</v>
+      <c r="F72" t="s">
+        <v>25</v>
       </c>
       <c r="K72" t="s">
         <v>563</v>
@@ -6373,14 +6406,14 @@
       <c r="C73" t="s">
         <v>26</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>26</v>
       </c>
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" t="s">
+      <c r="G73" t="s">
         <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
       </c>
       <c r="K73" t="s">
         <v>563</v>
@@ -6417,10 +6450,10 @@
       <c r="C74" t="s">
         <v>18</v>
       </c>
-      <c r="D74" t="s">
-        <v>18</v>
-      </c>
       <c r="E74" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" t="s">
         <v>18</v>
       </c>
       <c r="K74" t="s">
@@ -6458,10 +6491,10 @@
       <c r="C75" t="s">
         <v>18</v>
       </c>
-      <c r="D75" t="s">
-        <v>18</v>
-      </c>
       <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
         <v>18</v>
       </c>
       <c r="K75" t="s">
@@ -6499,10 +6532,10 @@
       <c r="C76" t="s">
         <v>25</v>
       </c>
-      <c r="D76" t="s">
-        <v>25</v>
-      </c>
       <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
         <v>25</v>
       </c>
       <c r="K76" t="s">
@@ -6540,13 +6573,13 @@
       <c r="C77" t="s">
         <v>18</v>
       </c>
-      <c r="D77" t="s">
-        <v>18</v>
-      </c>
       <c r="E77" t="s">
-        <v>25</v>
-      </c>
-      <c r="J77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
+      <c r="G77" t="s">
         <v>26</v>
       </c>
       <c r="K77" t="s">
@@ -6585,16 +6618,19 @@
         <v>25</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E78" t="s">
         <v>25</v>
       </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
       <c r="G78" t="s">
-        <v>25</v>
-      </c>
-      <c r="J78" t="s">
         <v>26</v>
+      </c>
+      <c r="I78" t="s">
+        <v>25</v>
       </c>
       <c r="K78" t="s">
         <v>563</v>
@@ -6632,13 +6668,13 @@
         <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E79" t="s">
         <v>25</v>
       </c>
-      <c r="I79" t="s">
-        <v>26</v>
+      <c r="F79" t="s">
+        <v>25</v>
       </c>
       <c r="K79" t="s">
         <v>563</v>
@@ -6676,22 +6712,22 @@
         <v>25</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
         <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s">
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>26</v>
-      </c>
-      <c r="J80" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K80" t="s">
         <v>563</v>
@@ -6728,13 +6764,13 @@
       <c r="C81" t="s">
         <v>25</v>
       </c>
-      <c r="D81" t="s">
-        <v>25</v>
-      </c>
       <c r="E81" t="s">
         <v>25</v>
       </c>
       <c r="F81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s">
         <v>18</v>
       </c>
       <c r="K81" t="s">
@@ -6772,17 +6808,17 @@
       <c r="C82" t="s">
         <v>18</v>
       </c>
-      <c r="D82" t="s">
-        <v>18</v>
-      </c>
       <c r="E82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" t="s">
         <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>25</v>
-      </c>
-      <c r="J82" t="s">
         <v>26</v>
+      </c>
+      <c r="I82" t="s">
+        <v>25</v>
       </c>
       <c r="K82" t="s">
         <v>563</v>
@@ -6825,11 +6861,11 @@
       <c r="E83" t="s">
         <v>25</v>
       </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
         <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K83" t="s">
         <v>563</v>
@@ -6866,13 +6902,13 @@
       <c r="C84" t="s">
         <v>18</v>
       </c>
-      <c r="E84" t="s">
+      <c r="D84" t="s">
         <v>26</v>
       </c>
-      <c r="I84" t="s">
+      <c r="F84" t="s">
         <v>26</v>
       </c>
-      <c r="J84" t="s">
+      <c r="G84" t="s">
         <v>26</v>
       </c>
       <c r="K84" t="s">
@@ -6910,10 +6946,10 @@
       <c r="C85" t="s">
         <v>25</v>
       </c>
-      <c r="D85" t="s">
-        <v>25</v>
-      </c>
       <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
         <v>25</v>
       </c>
       <c r="K85" t="s">
@@ -6951,13 +6987,13 @@
       <c r="C86" t="s">
         <v>25</v>
       </c>
-      <c r="D86" t="s">
-        <v>25</v>
-      </c>
       <c r="E86" t="s">
         <v>25</v>
       </c>
-      <c r="J86" t="s">
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
         <v>26</v>
       </c>
       <c r="K86" t="s">
@@ -6995,13 +7031,13 @@
       <c r="C87" t="s">
         <v>25</v>
       </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
       <c r="E87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
+        <v>25</v>
+      </c>
+      <c r="I87" t="s">
         <v>18</v>
       </c>
       <c r="K87" t="s">
@@ -7040,22 +7076,22 @@
         <v>25</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
         <v>25</v>
       </c>
       <c r="F88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
         <v>26</v>
       </c>
-      <c r="G88" t="s">
-        <v>25</v>
+      <c r="H88" t="s">
+        <v>26</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
-      </c>
-      <c r="J88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K88" t="s">
         <v>563</v>
@@ -7092,16 +7128,16 @@
       <c r="C89" t="s">
         <v>18</v>
       </c>
-      <c r="D89" t="s">
-        <v>18</v>
-      </c>
       <c r="E89" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" t="s">
         <v>25</v>
       </c>
       <c r="G89" t="s">
         <v>26</v>
       </c>
-      <c r="J89" t="s">
+      <c r="I89" t="s">
         <v>26</v>
       </c>
       <c r="K89" t="s">
@@ -7145,11 +7181,11 @@
       <c r="E90" t="s">
         <v>25</v>
       </c>
-      <c r="G90" t="s">
+      <c r="F90" t="s">
         <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K90" t="s">
         <v>563</v>
@@ -7186,13 +7222,13 @@
       <c r="C91" t="s">
         <v>25</v>
       </c>
-      <c r="D91" t="s">
-        <v>18</v>
-      </c>
       <c r="E91" t="s">
         <v>18</v>
       </c>
-      <c r="G91" t="s">
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
         <v>18</v>
       </c>
       <c r="K91" t="s">
@@ -7230,17 +7266,17 @@
       <c r="C92" t="s">
         <v>18</v>
       </c>
-      <c r="D92" t="s">
-        <v>18</v>
-      </c>
       <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
         <v>25</v>
       </c>
       <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="J92" t="s">
         <v>26</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
       </c>
       <c r="K92" t="s">
         <v>563</v>
@@ -7277,7 +7313,7 @@
       <c r="C93" t="s">
         <v>18</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>18</v>
       </c>
       <c r="K93" t="s">
@@ -7315,13 +7351,13 @@
       <c r="C94" t="s">
         <v>25</v>
       </c>
-      <c r="E94" t="s">
+      <c r="D94" t="s">
         <v>26</v>
       </c>
-      <c r="I94" t="s">
+      <c r="F94" t="s">
         <v>26</v>
       </c>
-      <c r="J94" t="s">
+      <c r="G94" t="s">
         <v>26</v>
       </c>
       <c r="K94" t="s">
@@ -7394,17 +7430,17 @@
       <c r="C96" t="s">
         <v>25</v>
       </c>
-      <c r="E96" t="s">
+      <c r="D96" t="s">
         <v>26</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="I96" t="s">
         <v>26</v>
       </c>
-      <c r="J96" t="s">
+      <c r="G96" t="s">
         <v>26</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
       </c>
       <c r="K96" t="s">
         <v>563</v>
@@ -7441,13 +7477,13 @@
       <c r="C97" t="s">
         <v>25</v>
       </c>
-      <c r="D97" t="s">
-        <v>18</v>
-      </c>
       <c r="E97" t="s">
-        <v>25</v>
-      </c>
-      <c r="J97" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
         <v>26</v>
       </c>
       <c r="K97" t="s">
@@ -7486,15 +7522,18 @@
         <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
         <v>25</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
+        <v>25</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
         <v>25</v>
       </c>
       <c r="K98" t="s">
@@ -7539,13 +7578,13 @@
         <v>25</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s">
         <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K99" t="s">
         <v>563</v>
@@ -7588,11 +7627,11 @@
       <c r="E100" t="s">
         <v>25</v>
       </c>
-      <c r="G100" t="s">
+      <c r="F100" t="s">
         <v>25</v>
       </c>
       <c r="I100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K100" t="s">
         <v>563</v>
@@ -7629,13 +7668,13 @@
       <c r="C101" t="s">
         <v>25</v>
       </c>
-      <c r="D101" t="s">
-        <v>18</v>
-      </c>
       <c r="E101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
         <v>26</v>
       </c>
-      <c r="J101" t="s">
+      <c r="G101" t="s">
         <v>26</v>
       </c>
       <c r="K101" t="s">
@@ -7674,13 +7713,13 @@
         <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E102" t="s">
         <v>18</v>
       </c>
-      <c r="I102" t="s">
-        <v>26</v>
+      <c r="F102" t="s">
+        <v>18</v>
       </c>
       <c r="K102" t="s">
         <v>563</v>
@@ -7717,16 +7756,16 @@
       <c r="C103" t="s">
         <v>25</v>
       </c>
-      <c r="D103" t="s">
-        <v>18</v>
-      </c>
       <c r="E103" t="s">
-        <v>25</v>
-      </c>
-      <c r="G103" t="s">
-        <v>18</v>
-      </c>
-      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
         <v>26</v>
       </c>
       <c r="K103" t="s">
@@ -7771,16 +7810,16 @@
         <v>25</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
       </c>
       <c r="I104" t="s">
-        <v>26</v>
-      </c>
-      <c r="J104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K104" t="s">
         <v>563</v>
@@ -7817,10 +7856,10 @@
       <c r="C105" t="s">
         <v>25</v>
       </c>
-      <c r="D105" t="s">
-        <v>18</v>
-      </c>
       <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" t="s">
         <v>25</v>
       </c>
       <c r="K105" t="s">
@@ -7858,10 +7897,10 @@
       <c r="C106" t="s">
         <v>25</v>
       </c>
-      <c r="D106" t="s">
-        <v>25</v>
-      </c>
       <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
         <v>25</v>
       </c>
       <c r="K106" t="s">
@@ -7899,16 +7938,16 @@
       <c r="C107" t="s">
         <v>18</v>
       </c>
-      <c r="D107" t="s">
-        <v>18</v>
-      </c>
       <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" t="s">
         <v>25</v>
       </c>
       <c r="G107" t="s">
         <v>26</v>
       </c>
-      <c r="J107" t="s">
+      <c r="I107" t="s">
         <v>26</v>
       </c>
       <c r="K107" t="s">
@@ -7946,10 +7985,10 @@
       <c r="C108" t="s">
         <v>25</v>
       </c>
-      <c r="D108" t="s">
-        <v>25</v>
-      </c>
       <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
         <v>25</v>
       </c>
       <c r="K108" t="s">
@@ -7984,11 +8023,11 @@
       <c r="B109" t="s">
         <v>18</v>
       </c>
-      <c r="E109" t="s">
-        <v>25</v>
-      </c>
-      <c r="I109" t="s">
-        <v>26</v>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>25</v>
       </c>
       <c r="K109" t="s">
         <v>563</v>
@@ -8029,9 +8068,12 @@
         <v>18</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s">
         <v>18</v>
       </c>
       <c r="K110" t="s">
@@ -8066,13 +8108,13 @@
       <c r="B111" t="s">
         <v>18</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>26</v>
       </c>
       <c r="G111" t="s">
         <v>26</v>
       </c>
-      <c r="J111" t="s">
+      <c r="I111" t="s">
         <v>26</v>
       </c>
       <c r="K111" t="s">
@@ -8110,13 +8152,13 @@
       <c r="C112" t="s">
         <v>25</v>
       </c>
-      <c r="D112" t="s">
-        <v>18</v>
-      </c>
       <c r="E112" t="s">
-        <v>25</v>
-      </c>
-      <c r="J112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
         <v>26</v>
       </c>
       <c r="K112" t="s">
@@ -8189,13 +8231,13 @@
       <c r="C114" t="s">
         <v>25</v>
       </c>
-      <c r="D114" t="s">
-        <v>25</v>
-      </c>
       <c r="E114" t="s">
         <v>25</v>
       </c>
-      <c r="G114" t="s">
+      <c r="F114" t="s">
+        <v>25</v>
+      </c>
+      <c r="I114" t="s">
         <v>18</v>
       </c>
       <c r="K114" t="s">
@@ -8233,13 +8275,13 @@
       <c r="C115" t="s">
         <v>18</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>18</v>
       </c>
       <c r="G115" t="s">
         <v>26</v>
       </c>
-      <c r="J115" t="s">
+      <c r="I115" t="s">
         <v>26</v>
       </c>
       <c r="K115" t="s">
@@ -8277,13 +8319,13 @@
       <c r="C116" t="s">
         <v>25</v>
       </c>
-      <c r="D116" t="s">
-        <v>18</v>
-      </c>
       <c r="E116" t="s">
-        <v>25</v>
-      </c>
-      <c r="J116" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
         <v>26</v>
       </c>
       <c r="K116" t="s">
@@ -8322,13 +8364,13 @@
         <v>25</v>
       </c>
       <c r="D117" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
         <v>25</v>
       </c>
-      <c r="I117" t="s">
-        <v>26</v>
+      <c r="F117" t="s">
+        <v>25</v>
       </c>
       <c r="K117" t="s">
         <v>563</v>
@@ -8365,13 +8407,13 @@
       <c r="C118" t="s">
         <v>25</v>
       </c>
-      <c r="D118" t="s">
-        <v>18</v>
-      </c>
       <c r="E118" t="s">
         <v>18</v>
       </c>
       <c r="F118" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" t="s">
         <v>18</v>
       </c>
       <c r="K118" t="s">
@@ -8410,13 +8452,13 @@
         <v>25</v>
       </c>
       <c r="D119" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E119" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
       </c>
       <c r="K119" t="s">
         <v>563</v>
@@ -8453,10 +8495,10 @@
       <c r="C120" t="s">
         <v>18</v>
       </c>
-      <c r="D120" t="s">
-        <v>18</v>
-      </c>
       <c r="E120" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" t="s">
         <v>18</v>
       </c>
       <c r="K120" t="s">
@@ -8495,19 +8537,19 @@
         <v>26</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" t="s">
         <v>25</v>
       </c>
       <c r="G121" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I121" t="s">
-        <v>26</v>
-      </c>
-      <c r="J121" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K121" t="s">
         <v>563</v>
@@ -8544,13 +8586,13 @@
       <c r="C122" t="s">
         <v>18</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>26</v>
       </c>
       <c r="G122" t="s">
         <v>26</v>
       </c>
-      <c r="J122" t="s">
+      <c r="I122" t="s">
         <v>26</v>
       </c>
       <c r="K122" t="s">
@@ -8588,10 +8630,10 @@
       <c r="C123" t="s">
         <v>25</v>
       </c>
-      <c r="D123" t="s">
-        <v>18</v>
-      </c>
       <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" t="s">
         <v>18</v>
       </c>
       <c r="K123" t="s">
@@ -8629,10 +8671,10 @@
       <c r="C124" t="s">
         <v>25</v>
       </c>
-      <c r="D124" t="s">
-        <v>25</v>
-      </c>
       <c r="E124" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" t="s">
         <v>25</v>
       </c>
       <c r="K124" t="s">
@@ -8671,13 +8713,13 @@
         <v>25</v>
       </c>
       <c r="D125" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E125" t="s">
         <v>25</v>
       </c>
-      <c r="I125" t="s">
-        <v>26</v>
+      <c r="F125" t="s">
+        <v>25</v>
       </c>
       <c r="K125" t="s">
         <v>563</v>
@@ -8706,7 +8748,7 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B126" t="s">
         <v>18</v>
@@ -8746,10 +8788,10 @@
       <c r="C127" t="s">
         <v>18</v>
       </c>
-      <c r="D127" t="s">
-        <v>18</v>
-      </c>
       <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" t="s">
         <v>18</v>
       </c>
       <c r="K127" t="s">
@@ -8779,7 +8821,7 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B128" t="s">
         <v>18</v>
@@ -8822,10 +8864,10 @@
       <c r="C129" t="s">
         <v>18</v>
       </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
       <c r="E129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
         <v>18</v>
       </c>
       <c r="K129" t="s">
@@ -8863,6 +8905,9 @@
       <c r="D130" t="s">
         <v>18</v>
       </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
       <c r="K130" t="s">
         <v>563</v>
       </c>
@@ -8898,13 +8943,13 @@
       <c r="C131" t="s">
         <v>25</v>
       </c>
-      <c r="D131" t="s">
-        <v>25</v>
-      </c>
       <c r="E131" t="s">
         <v>25</v>
       </c>
-      <c r="G131" t="s">
+      <c r="F131" t="s">
+        <v>25</v>
+      </c>
+      <c r="I131" t="s">
         <v>25</v>
       </c>
       <c r="K131" t="s">
@@ -8942,10 +8987,10 @@
       <c r="C132" t="s">
         <v>18</v>
       </c>
-      <c r="E132" t="s">
-        <v>25</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="F132" t="s">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s">
         <v>26</v>
       </c>
       <c r="K132" t="s">
@@ -8983,7 +9028,7 @@
       <c r="C133" t="s">
         <v>25</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>18</v>
       </c>
       <c r="K133" t="s">
@@ -9022,15 +9067,15 @@
         <v>25</v>
       </c>
       <c r="D134" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
-      </c>
-      <c r="I134" t="s">
-        <v>26</v>
-      </c>
-      <c r="J134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134" t="s">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s">
         <v>26</v>
       </c>
       <c r="K134" t="s">
@@ -9074,8 +9119,8 @@
       <c r="E135" t="s">
         <v>25</v>
       </c>
-      <c r="I135" t="s">
-        <v>26</v>
+      <c r="F135" t="s">
+        <v>25</v>
       </c>
       <c r="K135" t="s">
         <v>563</v>
@@ -9104,7 +9149,7 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B136" t="s">
         <v>18</v>
@@ -9136,12 +9181,12 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B137" t="s">
         <v>18</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E137" t="s">
         <v>18</v>
       </c>
       <c r="K137" t="s">
@@ -9179,10 +9224,10 @@
       <c r="C138" t="s">
         <v>25</v>
       </c>
-      <c r="D138" t="s">
-        <v>25</v>
-      </c>
       <c r="E138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138" t="s">
         <v>25</v>
       </c>
       <c r="K138" t="s">
@@ -9220,13 +9265,13 @@
       <c r="C139" t="s">
         <v>18</v>
       </c>
-      <c r="D139" t="s">
-        <v>18</v>
-      </c>
       <c r="E139" t="s">
         <v>18</v>
       </c>
-      <c r="J139" t="s">
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139" t="s">
         <v>26</v>
       </c>
       <c r="K139" t="s">
@@ -9264,10 +9309,10 @@
       <c r="C140" t="s">
         <v>18</v>
       </c>
-      <c r="D140" t="s">
-        <v>18</v>
-      </c>
       <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="K140" t="s">
@@ -9306,13 +9351,13 @@
         <v>25</v>
       </c>
       <c r="D141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E141" t="s">
         <v>25</v>
       </c>
-      <c r="I141" t="s">
-        <v>26</v>
+      <c r="F141" t="s">
+        <v>25</v>
       </c>
       <c r="K141" t="s">
         <v>563</v>
@@ -9349,10 +9394,10 @@
       <c r="C142" t="s">
         <v>18</v>
       </c>
-      <c r="D142" t="s">
-        <v>18</v>
-      </c>
       <c r="E142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="K142" t="s">
@@ -9390,7 +9435,7 @@
       <c r="C143" t="s">
         <v>18</v>
       </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
         <v>25</v>
       </c>
       <c r="K143" t="s">
@@ -9469,6 +9514,9 @@
       <c r="E145" t="s">
         <v>18</v>
       </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
       <c r="K145" t="s">
         <v>18</v>
       </c>
@@ -9504,16 +9552,16 @@
       <c r="C146" t="s">
         <v>25</v>
       </c>
-      <c r="D146" t="s">
-        <v>25</v>
-      </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" t="s">
         <v>18</v>
       </c>
       <c r="K146" t="s">
@@ -9551,10 +9599,10 @@
       <c r="C147" t="s">
         <v>25</v>
       </c>
-      <c r="D147" t="s">
-        <v>18</v>
-      </c>
       <c r="E147" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" t="s">
         <v>18</v>
       </c>
       <c r="K147" t="s">
@@ -9593,19 +9641,19 @@
         <v>25</v>
       </c>
       <c r="D148" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E148" t="s">
         <v>18</v>
       </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
       <c r="G148" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I148" t="s">
-        <v>26</v>
-      </c>
-      <c r="J148" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K148" t="s">
         <v>563</v>
@@ -9643,16 +9691,13 @@
         <v>25</v>
       </c>
       <c r="D149" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E149" t="s">
         <v>25</v>
       </c>
-      <c r="H149" t="s">
-        <v>18</v>
-      </c>
-      <c r="I149" t="s">
-        <v>26</v>
+      <c r="F149" t="s">
+        <v>25</v>
       </c>
       <c r="K149" t="s">
         <v>563</v>
@@ -9689,10 +9734,10 @@
       <c r="C150" t="s">
         <v>25</v>
       </c>
-      <c r="D150" t="s">
-        <v>18</v>
-      </c>
       <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
         <v>18</v>
       </c>
       <c r="K150" t="s">
@@ -9731,15 +9776,15 @@
         <v>25</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
-      </c>
-      <c r="I151" t="s">
-        <v>26</v>
-      </c>
-      <c r="J151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" t="s">
+        <v>25</v>
+      </c>
+      <c r="G151" t="s">
         <v>26</v>
       </c>
       <c r="K151" t="s">
@@ -9777,10 +9822,10 @@
       <c r="C152" t="s">
         <v>18</v>
       </c>
-      <c r="D152" t="s">
-        <v>18</v>
-      </c>
       <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
         <v>18</v>
       </c>
       <c r="K152" t="s">
@@ -9815,10 +9860,10 @@
       <c r="B153" t="s">
         <v>18</v>
       </c>
-      <c r="D153" t="s">
-        <v>18</v>
-      </c>
       <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" t="s">
         <v>18</v>
       </c>
       <c r="K153" t="s">
@@ -9862,6 +9907,9 @@
       <c r="E154" t="s">
         <v>18</v>
       </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
       <c r="K154" t="s">
         <v>18</v>
       </c>
@@ -9897,10 +9945,10 @@
       <c r="C155" t="s">
         <v>25</v>
       </c>
-      <c r="D155" t="s">
-        <v>25</v>
-      </c>
       <c r="E155" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" t="s">
         <v>18</v>
       </c>
       <c r="K155" t="s">
@@ -9939,13 +9987,13 @@
         <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E156" t="s">
-        <v>18</v>
-      </c>
-      <c r="I156" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
       </c>
       <c r="K156" t="s">
         <v>563</v>
@@ -9983,19 +10031,19 @@
         <v>26</v>
       </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E157" t="s">
+        <v>18</v>
+      </c>
+      <c r="F157" t="s">
         <v>25</v>
       </c>
       <c r="G157" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I157" t="s">
-        <v>26</v>
-      </c>
-      <c r="J157" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="K157" t="s">
         <v>563</v>
@@ -10024,7 +10072,7 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B158" t="s">
         <v>18</v>
@@ -10064,10 +10112,10 @@
       <c r="C159" t="s">
         <v>25</v>
       </c>
-      <c r="D159" t="s">
-        <v>25</v>
-      </c>
       <c r="E159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" t="s">
         <v>25</v>
       </c>
       <c r="K159" t="s">
@@ -10105,10 +10153,10 @@
       <c r="C160" t="s">
         <v>18</v>
       </c>
-      <c r="D160" t="s">
-        <v>25</v>
-      </c>
       <c r="E160" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" t="s">
         <v>18</v>
       </c>
       <c r="K160" t="s">
@@ -10146,10 +10194,10 @@
       <c r="C161" t="s">
         <v>25</v>
       </c>
-      <c r="D161" t="s">
-        <v>25</v>
-      </c>
       <c r="E161" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" t="s">
         <v>25</v>
       </c>
       <c r="K161" t="s">
@@ -10179,12 +10227,12 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B162" t="s">
         <v>18</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
         <v>18</v>
       </c>
       <c r="K162" t="s">
@@ -10226,6 +10274,9 @@
         <v>18</v>
       </c>
       <c r="E163" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" t="s">
         <v>26</v>
       </c>
       <c r="K163" t="s">
@@ -10263,10 +10314,10 @@
       <c r="C164" t="s">
         <v>18</v>
       </c>
-      <c r="D164" t="s">
-        <v>18</v>
-      </c>
       <c r="E164" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" t="s">
         <v>18</v>
       </c>
       <c r="K164" t="s">
@@ -10304,10 +10355,10 @@
       <c r="C165" t="s">
         <v>25</v>
       </c>
-      <c r="D165" t="s">
-        <v>18</v>
-      </c>
       <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" t="s">
         <v>25</v>
       </c>
       <c r="K165" t="s">
@@ -10380,10 +10431,10 @@
       <c r="C167" t="s">
         <v>25</v>
       </c>
-      <c r="D167" t="s">
-        <v>18</v>
-      </c>
       <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" t="s">
         <v>25</v>
       </c>
       <c r="K167" t="s">
@@ -10421,10 +10472,10 @@
       <c r="C168" t="s">
         <v>25</v>
       </c>
-      <c r="D168" t="s">
-        <v>18</v>
-      </c>
       <c r="E168" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" t="s">
         <v>18</v>
       </c>
       <c r="K168" t="s">
@@ -10462,10 +10513,10 @@
       <c r="C169" t="s">
         <v>18</v>
       </c>
-      <c r="D169" t="s">
-        <v>18</v>
-      </c>
       <c r="E169" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" t="s">
         <v>18</v>
       </c>
       <c r="K169" t="s">
@@ -10504,9 +10555,12 @@
         <v>18</v>
       </c>
       <c r="E170" t="s">
-        <v>25</v>
-      </c>
-      <c r="J170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" t="s">
+        <v>25</v>
+      </c>
+      <c r="G170" t="s">
         <v>26</v>
       </c>
       <c r="K170" t="s">
@@ -10544,16 +10598,16 @@
       <c r="C171" t="s">
         <v>18</v>
       </c>
-      <c r="D171" t="s">
-        <v>18</v>
-      </c>
       <c r="E171" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" t="s">
         <v>18</v>
       </c>
       <c r="G171" t="s">
         <v>26</v>
       </c>
-      <c r="J171" t="s">
+      <c r="I171" t="s">
         <v>26</v>
       </c>
       <c r="K171" t="s">
@@ -10591,13 +10645,13 @@
       <c r="C172" t="s">
         <v>18</v>
       </c>
-      <c r="D172" t="s">
-        <v>18</v>
-      </c>
       <c r="E172" t="s">
-        <v>25</v>
-      </c>
-      <c r="G172" t="s">
+        <v>18</v>
+      </c>
+      <c r="F172" t="s">
+        <v>25</v>
+      </c>
+      <c r="I172" t="s">
         <v>18</v>
       </c>
       <c r="K172" t="s">
@@ -10635,10 +10689,10 @@
       <c r="C173" t="s">
         <v>25</v>
       </c>
-      <c r="D173" t="s">
-        <v>25</v>
-      </c>
       <c r="E173" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" t="s">
         <v>25</v>
       </c>
       <c r="K173" t="s">
@@ -10668,7 +10722,7 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B174" t="s">
         <v>18</v>
@@ -10708,10 +10762,16 @@
       <c r="B175" t="s">
         <v>18</v>
       </c>
-      <c r="E175" t="s">
+      <c r="D175" t="s">
         <v>18</v>
       </c>
       <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" t="s">
         <v>18</v>
       </c>
       <c r="K175" t="s">
@@ -10749,13 +10809,13 @@
       <c r="C176" t="s">
         <v>25</v>
       </c>
-      <c r="D176" t="s">
-        <v>25</v>
-      </c>
       <c r="E176" t="s">
         <v>25</v>
       </c>
-      <c r="G176" t="s">
+      <c r="F176" t="s">
+        <v>25</v>
+      </c>
+      <c r="I176" t="s">
         <v>18</v>
       </c>
       <c r="K176" t="s">
@@ -10793,10 +10853,10 @@
       <c r="C177" t="s">
         <v>25</v>
       </c>
-      <c r="D177" t="s">
-        <v>18</v>
-      </c>
       <c r="E177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177" t="s">
         <v>25</v>
       </c>
       <c r="K177" t="s">
@@ -10834,7 +10894,10 @@
       <c r="C178" t="s">
         <v>18</v>
       </c>
-      <c r="J178" t="s">
+      <c r="D178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
         <v>26</v>
       </c>
       <c r="K178" t="s">
@@ -10872,10 +10935,10 @@
       <c r="C179" t="s">
         <v>18</v>
       </c>
-      <c r="D179" t="s">
-        <v>18</v>
-      </c>
       <c r="E179" t="s">
+        <v>18</v>
+      </c>
+      <c r="F179" t="s">
         <v>18</v>
       </c>
       <c r="K179" t="s">
@@ -10914,10 +10977,10 @@
         <v>25</v>
       </c>
       <c r="D180" t="s">
-        <v>18</v>
-      </c>
-      <c r="I180" t="s">
         <v>26</v>
+      </c>
+      <c r="E180" t="s">
+        <v>18</v>
       </c>
       <c r="K180" t="s">
         <v>563</v>
@@ -10957,7 +11020,10 @@
       <c r="E181" t="s">
         <v>18</v>
       </c>
-      <c r="G181" t="s">
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="I181" t="s">
         <v>18</v>
       </c>
       <c r="K181" t="s">
@@ -10995,10 +11061,10 @@
       <c r="C182" t="s">
         <v>25</v>
       </c>
-      <c r="D182" t="s">
-        <v>25</v>
-      </c>
       <c r="E182" t="s">
+        <v>25</v>
+      </c>
+      <c r="F182" t="s">
         <v>25</v>
       </c>
       <c r="K182" t="s">
@@ -11036,13 +11102,13 @@
       <c r="C183" t="s">
         <v>25</v>
       </c>
-      <c r="D183" t="s">
-        <v>18</v>
-      </c>
       <c r="E183" t="s">
         <v>18</v>
       </c>
       <c r="F183" t="s">
+        <v>18</v>
+      </c>
+      <c r="H183" t="s">
         <v>18</v>
       </c>
       <c r="K183" t="s">
@@ -11077,6 +11143,9 @@
       <c r="B184" t="s">
         <v>18</v>
       </c>
+      <c r="D184" t="s">
+        <v>18</v>
+      </c>
       <c r="K184" t="s">
         <v>18</v>
       </c>
@@ -11104,7 +11173,7 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B185" t="s">
         <v>18</v>
@@ -11179,10 +11248,10 @@
       <c r="C187" t="s">
         <v>25</v>
       </c>
-      <c r="D187" t="s">
-        <v>18</v>
-      </c>
       <c r="E187" t="s">
+        <v>18</v>
+      </c>
+      <c r="F187" t="s">
         <v>25</v>
       </c>
       <c r="K187" t="s">
@@ -11212,7 +11281,7 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B188" t="s">
         <v>18</v>
@@ -11252,10 +11321,13 @@
       <c r="B189" t="s">
         <v>18</v>
       </c>
-      <c r="E189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
+      <c r="D189" t="s">
+        <v>18</v>
+      </c>
+      <c r="F189" t="s">
+        <v>18</v>
+      </c>
+      <c r="I189" t="s">
         <v>25</v>
       </c>
       <c r="K189" t="s">
@@ -11293,10 +11365,10 @@
       <c r="C190" t="s">
         <v>18</v>
       </c>
-      <c r="D190" t="s">
-        <v>18</v>
-      </c>
       <c r="E190" t="s">
+        <v>18</v>
+      </c>
+      <c r="F190" t="s">
         <v>18</v>
       </c>
       <c r="K190" t="s">
@@ -11334,7 +11406,7 @@
       <c r="C191" t="s">
         <v>18</v>
       </c>
-      <c r="F191" t="s">
+      <c r="H191" t="s">
         <v>18</v>
       </c>
       <c r="K191" t="s">
@@ -11364,7 +11436,7 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B192" t="s">
         <v>18</v>
@@ -11399,7 +11471,7 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B193" t="s">
         <v>18</v>
@@ -11439,10 +11511,10 @@
       <c r="C194" t="s">
         <v>25</v>
       </c>
-      <c r="D194" t="s">
-        <v>25</v>
-      </c>
       <c r="E194" t="s">
+        <v>25</v>
+      </c>
+      <c r="F194" t="s">
         <v>25</v>
       </c>
       <c r="K194" t="s">
@@ -11472,7 +11544,7 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B195" t="s">
         <v>18</v>
@@ -11504,7 +11576,7 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B196" t="s">
         <v>18</v>
@@ -11582,10 +11654,10 @@
       <c r="C198" t="s">
         <v>18</v>
       </c>
-      <c r="D198" t="s">
-        <v>18</v>
-      </c>
       <c r="E198" t="s">
+        <v>18</v>
+      </c>
+      <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="K198" t="s">
@@ -11658,7 +11730,7 @@
       <c r="C200" t="s">
         <v>18</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>26</v>
       </c>
       <c r="K200" t="s">
@@ -11696,7 +11768,7 @@
       <c r="C201" t="s">
         <v>18</v>
       </c>
-      <c r="E201" t="s">
+      <c r="F201" t="s">
         <v>18</v>
       </c>
       <c r="K201" t="s">
@@ -11734,10 +11806,10 @@
       <c r="C202" t="s">
         <v>18</v>
       </c>
-      <c r="D202" t="s">
-        <v>18</v>
-      </c>
       <c r="E202" t="s">
+        <v>18</v>
+      </c>
+      <c r="F202" t="s">
         <v>18</v>
       </c>
       <c r="K202" t="s">
@@ -11775,7 +11847,7 @@
       <c r="C203" t="s">
         <v>18</v>
       </c>
-      <c r="F203" t="s">
+      <c r="H203" t="s">
         <v>18</v>
       </c>
       <c r="K203" t="s">
@@ -11805,12 +11877,12 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B204" t="s">
         <v>18</v>
       </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>18</v>
       </c>
       <c r="K204" t="s">
@@ -11848,10 +11920,10 @@
       <c r="C205" t="s">
         <v>18</v>
       </c>
-      <c r="D205" t="s">
-        <v>18</v>
-      </c>
       <c r="E205" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" t="s">
         <v>18</v>
       </c>
       <c r="K205" t="s">
@@ -11889,10 +11961,10 @@
       <c r="C206" t="s">
         <v>18</v>
       </c>
-      <c r="D206" t="s">
-        <v>18</v>
-      </c>
       <c r="E206" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206" t="s">
         <v>18</v>
       </c>
       <c r="K206" t="s">
@@ -11930,10 +12002,10 @@
       <c r="C207" t="s">
         <v>18</v>
       </c>
-      <c r="D207" t="s">
-        <v>18</v>
-      </c>
       <c r="E207" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207" t="s">
         <v>18</v>
       </c>
       <c r="K207" t="s">
@@ -11971,10 +12043,10 @@
       <c r="C208" t="s">
         <v>18</v>
       </c>
-      <c r="F208" t="s">
-        <v>18</v>
-      </c>
       <c r="H208" t="s">
+        <v>18</v>
+      </c>
+      <c r="J208" t="s">
         <v>18</v>
       </c>
       <c r="K208" t="s">
@@ -12012,10 +12084,10 @@
       <c r="C209" t="s">
         <v>18</v>
       </c>
-      <c r="D209" t="s">
-        <v>18</v>
-      </c>
       <c r="E209" t="s">
+        <v>18</v>
+      </c>
+      <c r="F209" t="s">
         <v>18</v>
       </c>
       <c r="K209" t="s">
@@ -12053,10 +12125,10 @@
       <c r="C210" t="s">
         <v>18</v>
       </c>
-      <c r="D210" t="s">
-        <v>18</v>
-      </c>
       <c r="E210" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210" t="s">
         <v>18</v>
       </c>
       <c r="K210" t="s">
@@ -12094,10 +12166,10 @@
       <c r="C211" t="s">
         <v>18</v>
       </c>
-      <c r="D211" t="s">
-        <v>18</v>
-      </c>
       <c r="E211" t="s">
+        <v>18</v>
+      </c>
+      <c r="F211" t="s">
         <v>18</v>
       </c>
       <c r="K211" t="s">
@@ -12127,7 +12199,7 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B212" t="s">
         <v>18</v>
@@ -12162,7 +12234,7 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B213" t="s">
         <v>18</v>
@@ -12170,10 +12242,10 @@
       <c r="C213" t="s">
         <v>18</v>
       </c>
-      <c r="D213" t="s">
-        <v>18</v>
-      </c>
       <c r="E213" t="s">
+        <v>18</v>
+      </c>
+      <c r="F213" t="s">
         <v>18</v>
       </c>
       <c r="K213" t="s">
@@ -12186,19 +12258,19 @@
         <v>408</v>
       </c>
       <c r="N213" t="s">
+        <v>608</v>
+      </c>
+      <c r="O213" t="s">
+        <v>609</v>
+      </c>
+      <c r="P213" t="s">
         <v>610</v>
       </c>
-      <c r="O213" t="s">
+      <c r="Q213" t="s">
         <v>611</v>
       </c>
-      <c r="P213" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>613</v>
-      </c>
       <c r="R213" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.2">
@@ -12211,10 +12283,10 @@
       <c r="C214" t="s">
         <v>25</v>
       </c>
-      <c r="D214" t="s">
-        <v>25</v>
-      </c>
       <c r="E214" t="s">
+        <v>25</v>
+      </c>
+      <c r="F214" t="s">
         <v>18</v>
       </c>
       <c r="K214" t="s">
@@ -12252,10 +12324,10 @@
       <c r="C215" t="s">
         <v>25</v>
       </c>
-      <c r="D215" t="s">
-        <v>25</v>
-      </c>
       <c r="E215" t="s">
+        <v>25</v>
+      </c>
+      <c r="F215" t="s">
         <v>25</v>
       </c>
       <c r="K215" t="s">
@@ -12293,10 +12365,10 @@
       <c r="C216" t="s">
         <v>18</v>
       </c>
-      <c r="D216" t="s">
-        <v>18</v>
-      </c>
       <c r="E216" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216" t="s">
         <v>18</v>
       </c>
       <c r="K216" t="s">
@@ -12334,10 +12406,10 @@
       <c r="C217" t="s">
         <v>18</v>
       </c>
-      <c r="D217" t="s">
-        <v>18</v>
-      </c>
       <c r="E217" t="s">
+        <v>18</v>
+      </c>
+      <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="K217" t="s">
@@ -12375,7 +12447,7 @@
       <c r="C218" t="s">
         <v>18</v>
       </c>
-      <c r="D218" t="s">
+      <c r="E218" t="s">
         <v>18</v>
       </c>
       <c r="K218" t="s">
@@ -12405,15 +12477,15 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B219" t="s">
         <v>18</v>
       </c>
-      <c r="D219" t="s">
-        <v>18</v>
-      </c>
       <c r="E219" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219" t="s">
         <v>18</v>
       </c>
       <c r="K219" t="s">
@@ -12451,10 +12523,10 @@
       <c r="C220" t="s">
         <v>18</v>
       </c>
-      <c r="D220" t="s">
-        <v>18</v>
-      </c>
       <c r="E220" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" t="s">
         <v>18</v>
       </c>
       <c r="K220" t="s">
@@ -12492,10 +12564,10 @@
       <c r="C221" t="s">
         <v>18</v>
       </c>
-      <c r="D221" t="s">
-        <v>18</v>
-      </c>
       <c r="E221" t="s">
+        <v>18</v>
+      </c>
+      <c r="F221" t="s">
         <v>18</v>
       </c>
       <c r="K221" t="s">
@@ -12533,10 +12605,10 @@
       <c r="C222" t="s">
         <v>18</v>
       </c>
-      <c r="D222" t="s">
-        <v>18</v>
-      </c>
       <c r="E222" t="s">
+        <v>18</v>
+      </c>
+      <c r="F222" t="s">
         <v>18</v>
       </c>
       <c r="K222" t="s">
@@ -12574,7 +12646,10 @@
       <c r="D223" t="s">
         <v>18</v>
       </c>
-      <c r="G223" t="s">
+      <c r="E223" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" t="s">
         <v>18</v>
       </c>
       <c r="K223" t="s">
@@ -12604,7 +12679,7 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B224" t="s">
         <v>18</v>
@@ -12647,10 +12722,10 @@
       <c r="C225" t="s">
         <v>25</v>
       </c>
-      <c r="D225" t="s">
-        <v>18</v>
-      </c>
       <c r="E225" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" t="s">
         <v>18</v>
       </c>
       <c r="K225" t="s">
@@ -12723,10 +12798,10 @@
       <c r="C227" t="s">
         <v>18</v>
       </c>
-      <c r="D227" t="s">
-        <v>18</v>
-      </c>
       <c r="E227" t="s">
+        <v>18</v>
+      </c>
+      <c r="F227" t="s">
         <v>18</v>
       </c>
       <c r="K227" t="s">
@@ -12764,10 +12839,10 @@
       <c r="C228" t="s">
         <v>18</v>
       </c>
-      <c r="D228" t="s">
-        <v>18</v>
-      </c>
       <c r="E228" t="s">
+        <v>18</v>
+      </c>
+      <c r="F228" t="s">
         <v>18</v>
       </c>
       <c r="K228" t="s">
@@ -12805,10 +12880,10 @@
       <c r="C229" t="s">
         <v>18</v>
       </c>
-      <c r="D229" t="s">
-        <v>18</v>
-      </c>
       <c r="E229" t="s">
+        <v>18</v>
+      </c>
+      <c r="F229" t="s">
         <v>18</v>
       </c>
       <c r="K229" t="s">
@@ -12838,15 +12913,15 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B230" t="s">
         <v>18</v>
       </c>
-      <c r="D230" t="s">
-        <v>18</v>
-      </c>
       <c r="E230" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" t="s">
         <v>18</v>
       </c>
       <c r="K230" t="s">
@@ -12884,7 +12959,7 @@
       <c r="C231" t="s">
         <v>18</v>
       </c>
-      <c r="D231" t="s">
+      <c r="E231" t="s">
         <v>18</v>
       </c>
       <c r="K231" t="s">
@@ -12922,7 +12997,7 @@
       <c r="C232" t="s">
         <v>18</v>
       </c>
-      <c r="D232" t="s">
+      <c r="E232" t="s">
         <v>18</v>
       </c>
       <c r="K232" t="s">
@@ -12952,7 +13027,7 @@
     </row>
     <row r="233" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B233" t="s">
         <v>18</v>
@@ -12993,9 +13068,12 @@
         <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E234" t="s">
+        <v>25</v>
+      </c>
+      <c r="F234" t="s">
         <v>25</v>
       </c>
       <c r="K234" t="s">
@@ -13033,7 +13111,7 @@
       <c r="C235" t="s">
         <v>18</v>
       </c>
-      <c r="D235" t="s">
+      <c r="E235" t="s">
         <v>25</v>
       </c>
       <c r="K235" t="s">
@@ -13106,10 +13184,10 @@
       <c r="C237" t="s">
         <v>18</v>
       </c>
-      <c r="D237" t="s">
-        <v>18</v>
-      </c>
       <c r="E237" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237" t="s">
         <v>18</v>
       </c>
       <c r="K237" t="s">
@@ -13147,10 +13225,10 @@
       <c r="C238" t="s">
         <v>18</v>
       </c>
-      <c r="D238" t="s">
-        <v>18</v>
-      </c>
       <c r="E238" t="s">
+        <v>18</v>
+      </c>
+      <c r="F238" t="s">
         <v>18</v>
       </c>
       <c r="K238" t="s">
@@ -13188,10 +13266,10 @@
       <c r="C239" t="s">
         <v>25</v>
       </c>
-      <c r="D239" t="s">
-        <v>18</v>
-      </c>
       <c r="E239" t="s">
+        <v>18</v>
+      </c>
+      <c r="F239" t="s">
         <v>18</v>
       </c>
       <c r="K239" t="s">
@@ -13221,7 +13299,7 @@
     </row>
     <row r="240" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B240" t="s">
         <v>18</v>
@@ -13229,10 +13307,10 @@
       <c r="C240" t="s">
         <v>18</v>
       </c>
-      <c r="D240" t="s">
-        <v>18</v>
-      </c>
       <c r="E240" t="s">
+        <v>18</v>
+      </c>
+      <c r="F240" t="s">
         <v>18</v>
       </c>
       <c r="K240" t="s">
@@ -13270,10 +13348,10 @@
       <c r="C241" t="s">
         <v>18</v>
       </c>
-      <c r="D241" t="s">
-        <v>18</v>
-      </c>
       <c r="E241" t="s">
+        <v>18</v>
+      </c>
+      <c r="F241" t="s">
         <v>18</v>
       </c>
       <c r="K241" t="s">
@@ -13311,13 +13389,13 @@
       <c r="C242" t="s">
         <v>18</v>
       </c>
-      <c r="D242" t="s">
-        <v>18</v>
-      </c>
       <c r="E242" t="s">
         <v>18</v>
       </c>
       <c r="F242" t="s">
+        <v>18</v>
+      </c>
+      <c r="H242" t="s">
         <v>18</v>
       </c>
       <c r="K242" t="s">
@@ -13355,7 +13433,7 @@
       <c r="C243" t="s">
         <v>25</v>
       </c>
-      <c r="E243" t="s">
+      <c r="F243" t="s">
         <v>18</v>
       </c>
       <c r="K243" t="s">
@@ -13393,10 +13471,10 @@
       <c r="C244" t="s">
         <v>25</v>
       </c>
-      <c r="D244" t="s">
-        <v>18</v>
-      </c>
-      <c r="F244" t="s">
+      <c r="E244" t="s">
+        <v>18</v>
+      </c>
+      <c r="H244" t="s">
         <v>18</v>
       </c>
       <c r="K244" t="s">
@@ -13426,15 +13504,15 @@
     </row>
     <row r="245" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B245" t="s">
         <v>18</v>
       </c>
-      <c r="D245" t="s">
-        <v>18</v>
-      </c>
       <c r="E245" t="s">
+        <v>18</v>
+      </c>
+      <c r="F245" t="s">
         <v>18</v>
       </c>
       <c r="K245" t="s">
@@ -13469,6 +13547,9 @@
       <c r="B246" t="s">
         <v>18</v>
       </c>
+      <c r="D246" t="s">
+        <v>18</v>
+      </c>
       <c r="K246" t="s">
         <v>18</v>
       </c>
@@ -13496,7 +13577,7 @@
     </row>
     <row r="247" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B247" t="s">
         <v>18</v>
@@ -13504,7 +13585,7 @@
       <c r="C247" t="s">
         <v>18</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>18</v>
       </c>
       <c r="K247" t="s">
@@ -13534,9 +13615,12 @@
     </row>
     <row r="248" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B248" t="s">
+        <v>18</v>
+      </c>
+      <c r="D248" t="s">
         <v>18</v>
       </c>
       <c r="K248" t="s">
@@ -13609,10 +13693,10 @@
       <c r="C250" t="s">
         <v>18</v>
       </c>
-      <c r="D250" t="s">
-        <v>18</v>
-      </c>
       <c r="E250" t="s">
+        <v>18</v>
+      </c>
+      <c r="F250" t="s">
         <v>18</v>
       </c>
       <c r="K250" t="s">
@@ -13650,10 +13734,10 @@
       <c r="C251" t="s">
         <v>18</v>
       </c>
-      <c r="D251" t="s">
-        <v>18</v>
-      </c>
       <c r="E251" t="s">
+        <v>18</v>
+      </c>
+      <c r="F251" t="s">
         <v>18</v>
       </c>
       <c r="K251" t="s">
@@ -13726,10 +13810,10 @@
       <c r="C253" t="s">
         <v>18</v>
       </c>
-      <c r="D253" t="s">
-        <v>18</v>
-      </c>
       <c r="E253" t="s">
+        <v>18</v>
+      </c>
+      <c r="F253" t="s">
         <v>18</v>
       </c>
       <c r="K253" t="s">
@@ -13759,7 +13843,7 @@
     </row>
     <row r="254" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B254" t="s">
         <v>18</v>
@@ -13767,10 +13851,10 @@
       <c r="C254" t="s">
         <v>18</v>
       </c>
-      <c r="D254" t="s">
-        <v>18</v>
-      </c>
       <c r="E254" t="s">
+        <v>18</v>
+      </c>
+      <c r="F254" t="s">
         <v>18</v>
       </c>
       <c r="K254" t="s">
@@ -13800,43 +13884,43 @@
     </row>
     <row r="255" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>621</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" t="s">
+        <v>18</v>
+      </c>
+      <c r="E255" t="s">
+        <v>18</v>
+      </c>
+      <c r="F255" t="s">
+        <v>18</v>
+      </c>
+      <c r="K255" t="s">
+        <v>18</v>
+      </c>
+      <c r="L255" t="s">
+        <v>19</v>
+      </c>
+      <c r="M255" t="s">
+        <v>27</v>
+      </c>
+      <c r="N255" t="s">
+        <v>27</v>
+      </c>
+      <c r="O255" t="s">
+        <v>622</v>
+      </c>
+      <c r="P255" t="s">
         <v>623</v>
       </c>
-      <c r="B255" t="s">
-        <v>18</v>
-      </c>
-      <c r="C255" t="s">
-        <v>18</v>
-      </c>
-      <c r="D255" t="s">
-        <v>18</v>
-      </c>
-      <c r="E255" t="s">
-        <v>18</v>
-      </c>
-      <c r="K255" t="s">
-        <v>18</v>
-      </c>
-      <c r="L255" t="s">
-        <v>19</v>
-      </c>
-      <c r="M255" t="s">
-        <v>27</v>
-      </c>
-      <c r="N255" t="s">
-        <v>27</v>
-      </c>
-      <c r="O255" t="s">
+      <c r="Q255" t="s">
         <v>624</v>
       </c>
-      <c r="P255" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q255" t="s">
-        <v>626</v>
-      </c>
       <c r="R255" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="256" spans="1:18" x14ac:dyDescent="0.2">
@@ -13849,10 +13933,10 @@
       <c r="C256" t="s">
         <v>25</v>
       </c>
-      <c r="D256" t="s">
-        <v>18</v>
-      </c>
       <c r="E256" t="s">
+        <v>18</v>
+      </c>
+      <c r="F256" t="s">
         <v>18</v>
       </c>
       <c r="K256" t="s">
@@ -13917,7 +14001,7 @@
     </row>
     <row r="258" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B258" t="s">
         <v>18</v>
@@ -13984,7 +14068,7 @@
     </row>
     <row r="260" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B260" t="s">
         <v>18</v>
@@ -14051,7 +14135,7 @@
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B262" t="s">
         <v>18</v>
@@ -14129,10 +14213,10 @@
       <c r="C264" t="s">
         <v>18</v>
       </c>
-      <c r="D264" t="s">
-        <v>18</v>
-      </c>
       <c r="E264" t="s">
+        <v>18</v>
+      </c>
+      <c r="F264" t="s">
         <v>18</v>
       </c>
       <c r="K264" t="s">
@@ -14170,10 +14254,10 @@
       <c r="C265" t="s">
         <v>18</v>
       </c>
-      <c r="D265" t="s">
-        <v>18</v>
-      </c>
       <c r="E265" t="s">
+        <v>18</v>
+      </c>
+      <c r="F265" t="s">
         <v>18</v>
       </c>
       <c r="K265" t="s">
@@ -14211,10 +14295,10 @@
       <c r="C266" t="s">
         <v>18</v>
       </c>
-      <c r="D266" t="s">
-        <v>18</v>
-      </c>
       <c r="E266" t="s">
+        <v>18</v>
+      </c>
+      <c r="F266" t="s">
         <v>18</v>
       </c>
       <c r="K266" t="s">
@@ -14252,10 +14336,10 @@
       <c r="C267" t="s">
         <v>18</v>
       </c>
-      <c r="D267" t="s">
-        <v>18</v>
-      </c>
       <c r="E267" t="s">
+        <v>18</v>
+      </c>
+      <c r="F267" t="s">
         <v>18</v>
       </c>
       <c r="K267" t="s">
@@ -14285,7 +14369,7 @@
     </row>
     <row r="268" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B268" t="s">
         <v>18</v>
@@ -14293,10 +14377,10 @@
       <c r="C268" t="s">
         <v>18</v>
       </c>
-      <c r="D268" t="s">
-        <v>18</v>
-      </c>
       <c r="E268" t="s">
+        <v>18</v>
+      </c>
+      <c r="F268" t="s">
         <v>18</v>
       </c>
       <c r="K268" t="s">
@@ -14369,7 +14453,7 @@
       <c r="C270" t="s">
         <v>25</v>
       </c>
-      <c r="D270" t="s">
+      <c r="E270" t="s">
         <v>18</v>
       </c>
       <c r="K270" t="s">
@@ -14399,7 +14483,7 @@
     </row>
     <row r="271" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B271" t="s">
         <v>18</v>
@@ -14411,22 +14495,22 @@
         <v>19</v>
       </c>
       <c r="M271" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N271" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O271" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="P271" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q271" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="R271" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="272" spans="1:18" x14ac:dyDescent="0.2">
@@ -14439,6 +14523,9 @@
       <c r="C272" t="s">
         <v>18</v>
       </c>
+      <c r="E272" t="s">
+        <v>18</v>
+      </c>
       <c r="K272" t="s">
         <v>18</v>
       </c>
@@ -14501,7 +14588,7 @@
     </row>
     <row r="274" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B274" t="s">
         <v>18</v>
@@ -14544,7 +14631,7 @@
       <c r="C275" t="s">
         <v>18</v>
       </c>
-      <c r="F275" t="s">
+      <c r="H275" t="s">
         <v>18</v>
       </c>
       <c r="K275" t="s">
@@ -14582,10 +14669,10 @@
       <c r="C276" t="s">
         <v>25</v>
       </c>
-      <c r="D276" t="s">
-        <v>18</v>
-      </c>
       <c r="E276" t="s">
+        <v>18</v>
+      </c>
+      <c r="F276" t="s">
         <v>18</v>
       </c>
       <c r="K276" t="s">
@@ -14623,10 +14710,10 @@
       <c r="C277" t="s">
         <v>18</v>
       </c>
-      <c r="D277" t="s">
-        <v>18</v>
-      </c>
       <c r="E277" t="s">
+        <v>18</v>
+      </c>
+      <c r="F277" t="s">
         <v>18</v>
       </c>
       <c r="K277" t="s">
@@ -14664,7 +14751,7 @@
       <c r="C278" t="s">
         <v>18</v>
       </c>
-      <c r="E278" t="s">
+      <c r="F278" t="s">
         <v>18</v>
       </c>
       <c r="K278" t="s">
@@ -14702,10 +14789,10 @@
       <c r="C279" t="s">
         <v>18</v>
       </c>
-      <c r="G279" t="s">
-        <v>25</v>
-      </c>
-      <c r="H279" t="s">
+      <c r="I279" t="s">
+        <v>25</v>
+      </c>
+      <c r="J279" t="s">
         <v>18</v>
       </c>
       <c r="K279" t="s">
@@ -14775,10 +14862,10 @@
       <c r="C281" t="s">
         <v>18</v>
       </c>
-      <c r="D281" t="s">
-        <v>18</v>
-      </c>
       <c r="E281" t="s">
+        <v>18</v>
+      </c>
+      <c r="F281" t="s">
         <v>18</v>
       </c>
       <c r="K281" t="s">
@@ -14816,10 +14903,10 @@
       <c r="C282" t="s">
         <v>25</v>
       </c>
-      <c r="D282" t="s">
-        <v>25</v>
-      </c>
       <c r="E282" t="s">
+        <v>25</v>
+      </c>
+      <c r="F282" t="s">
         <v>25</v>
       </c>
       <c r="K282" t="s">
@@ -14857,7 +14944,7 @@
       <c r="C283" t="s">
         <v>18</v>
       </c>
-      <c r="F283" t="s">
+      <c r="H283" t="s">
         <v>18</v>
       </c>
       <c r="K283" t="s">
@@ -14895,10 +14982,10 @@
       <c r="C284" t="s">
         <v>18</v>
       </c>
-      <c r="D284" t="s">
-        <v>18</v>
-      </c>
       <c r="E284" t="s">
+        <v>18</v>
+      </c>
+      <c r="F284" t="s">
         <v>18</v>
       </c>
       <c r="K284" t="s">
@@ -14936,10 +15023,10 @@
       <c r="C285" t="s">
         <v>18</v>
       </c>
-      <c r="D285" t="s">
-        <v>18</v>
-      </c>
       <c r="E285" t="s">
+        <v>18</v>
+      </c>
+      <c r="F285" t="s">
         <v>18</v>
       </c>
       <c r="K285" t="s">
@@ -14977,10 +15064,10 @@
       <c r="C286" t="s">
         <v>18</v>
       </c>
-      <c r="D286" t="s">
-        <v>18</v>
-      </c>
       <c r="E286" t="s">
+        <v>18</v>
+      </c>
+      <c r="F286" t="s">
         <v>18</v>
       </c>
       <c r="K286" t="s">
@@ -15018,10 +15105,10 @@
       <c r="C287" t="s">
         <v>18</v>
       </c>
-      <c r="D287" t="s">
-        <v>18</v>
-      </c>
       <c r="E287" t="s">
+        <v>18</v>
+      </c>
+      <c r="F287" t="s">
         <v>18</v>
       </c>
       <c r="K287" t="s">
@@ -15059,7 +15146,7 @@
       <c r="C288" t="s">
         <v>25</v>
       </c>
-      <c r="F288" t="s">
+      <c r="H288" t="s">
         <v>18</v>
       </c>
       <c r="K288" t="s">
@@ -15089,7 +15176,7 @@
     </row>
     <row r="289" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B289" t="s">
         <v>18</v>
@@ -15121,7 +15208,7 @@
     </row>
     <row r="290" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B290" t="s">
         <v>18</v>
@@ -15164,10 +15251,10 @@
       <c r="C291" t="s">
         <v>18</v>
       </c>
-      <c r="D291" t="s">
-        <v>18</v>
-      </c>
       <c r="E291" t="s">
+        <v>18</v>
+      </c>
+      <c r="F291" t="s">
         <v>18</v>
       </c>
       <c r="K291" t="s">
@@ -15205,10 +15292,10 @@
       <c r="C292" t="s">
         <v>18</v>
       </c>
-      <c r="D292" t="s">
-        <v>18</v>
-      </c>
       <c r="E292" t="s">
+        <v>18</v>
+      </c>
+      <c r="F292" t="s">
         <v>18</v>
       </c>
       <c r="K292" t="s">
@@ -15238,7 +15325,7 @@
     </row>
     <row r="293" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B293" t="s">
         <v>18</v>
@@ -15253,19 +15340,19 @@
         <v>418</v>
       </c>
       <c r="N293" t="s">
+        <v>635</v>
+      </c>
+      <c r="O293" t="s">
+        <v>636</v>
+      </c>
+      <c r="P293" t="s">
         <v>637</v>
       </c>
-      <c r="O293" t="s">
+      <c r="Q293" t="s">
         <v>638</v>
       </c>
-      <c r="P293" t="s">
-        <v>639</v>
-      </c>
-      <c r="Q293" t="s">
-        <v>640</v>
-      </c>
       <c r="R293" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="294" spans="1:18" x14ac:dyDescent="0.2">
@@ -15278,6 +15365,9 @@
       <c r="C294" t="s">
         <v>18</v>
       </c>
+      <c r="E294" t="s">
+        <v>18</v>
+      </c>
       <c r="K294" t="s">
         <v>563</v>
       </c>
@@ -15340,12 +15430,12 @@
     </row>
     <row r="296" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B296" t="s">
         <v>18</v>
       </c>
-      <c r="E296" t="s">
+      <c r="F296" t="s">
         <v>18</v>
       </c>
       <c r="K296" t="s">
@@ -15364,18 +15454,18 @@
         <v>119</v>
       </c>
       <c r="P296" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q296" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="R296" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="297" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B297" t="s">
         <v>18</v>
@@ -15383,7 +15473,7 @@
       <c r="C297" t="s">
         <v>18</v>
       </c>
-      <c r="E297" t="s">
+      <c r="F297" t="s">
         <v>18</v>
       </c>
       <c r="K297" t="s">
@@ -15405,15 +15495,15 @@
         <v>33</v>
       </c>
       <c r="Q297" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="R297" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="298" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B298" t="s">
         <v>18</v>
@@ -15434,18 +15524,18 @@
         <v>64</v>
       </c>
       <c r="P298" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q298" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="R298" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="299" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B299" t="s">
         <v>18</v>
@@ -15460,32 +15550,32 @@
         <v>418</v>
       </c>
       <c r="N299" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O299" t="s">
+        <v>647</v>
+      </c>
+      <c r="P299" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q299" t="s">
         <v>649</v>
       </c>
-      <c r="P299" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q299" t="s">
-        <v>651</v>
-      </c>
       <c r="R299" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="300" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B300" t="s">
         <v>18</v>
       </c>
-      <c r="D300" t="s">
-        <v>18</v>
-      </c>
       <c r="E300" t="s">
+        <v>18</v>
+      </c>
+      <c r="F300" t="s">
         <v>18</v>
       </c>
       <c r="K300" t="s">
@@ -15593,10 +15683,10 @@
       <c r="C303" t="s">
         <v>18</v>
       </c>
-      <c r="D303" t="s">
-        <v>18</v>
-      </c>
       <c r="E303" t="s">
+        <v>18</v>
+      </c>
+      <c r="F303" t="s">
         <v>18</v>
       </c>
       <c r="K303" t="s">
@@ -15704,7 +15794,7 @@
       <c r="C306" t="s">
         <v>18</v>
       </c>
-      <c r="F306" t="s">
+      <c r="H306" t="s">
         <v>18</v>
       </c>
       <c r="K306" t="s">
@@ -15742,7 +15832,7 @@
       <c r="C307" t="s">
         <v>18</v>
       </c>
-      <c r="F307" t="s">
+      <c r="H307" t="s">
         <v>18</v>
       </c>
       <c r="K307" t="s">
@@ -15842,42 +15932,42 @@
     </row>
     <row r="310" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
+        <v>651</v>
+      </c>
+      <c r="B310" t="s">
+        <v>18</v>
+      </c>
+      <c r="C310" t="s">
+        <v>18</v>
+      </c>
+      <c r="K310" t="s">
+        <v>18</v>
+      </c>
+      <c r="L310" t="s">
+        <v>19</v>
+      </c>
+      <c r="M310" t="s">
+        <v>27</v>
+      </c>
+      <c r="N310" t="s">
+        <v>27</v>
+      </c>
+      <c r="O310" t="s">
+        <v>652</v>
+      </c>
+      <c r="P310" t="s">
         <v>653</v>
       </c>
-      <c r="B310" t="s">
-        <v>18</v>
-      </c>
-      <c r="C310" t="s">
-        <v>18</v>
-      </c>
-      <c r="K310" t="s">
-        <v>18</v>
-      </c>
-      <c r="L310" t="s">
-        <v>19</v>
-      </c>
-      <c r="M310" t="s">
-        <v>27</v>
-      </c>
-      <c r="N310" t="s">
-        <v>27</v>
-      </c>
-      <c r="O310" t="s">
-        <v>654</v>
-      </c>
-      <c r="P310" t="s">
-        <v>655</v>
-      </c>
       <c r="Q310" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="R310" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="311" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B311" t="s">
         <v>18</v>
@@ -15898,18 +15988,18 @@
         <v>49</v>
       </c>
       <c r="P311" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>656</v>
+      </c>
+      <c r="R311" t="s">
         <v>657</v>
-      </c>
-      <c r="Q311" t="s">
-        <v>658</v>
-      </c>
-      <c r="R311" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="312" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B312" t="s">
         <v>18</v>
@@ -15933,18 +16023,18 @@
         <v>49</v>
       </c>
       <c r="P312" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="Q312" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="R312" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="313" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B313" t="s">
         <v>18</v>
@@ -15979,7 +16069,7 @@
     </row>
     <row r="314" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B314" t="s">
         <v>18</v>
@@ -16003,18 +16093,18 @@
         <v>119</v>
       </c>
       <c r="P314" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q314" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="R314" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="315" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B315" t="s">
         <v>18</v>
@@ -16057,7 +16147,7 @@
       <c r="C316" t="s">
         <v>25</v>
       </c>
-      <c r="F316" t="s">
+      <c r="H316" t="s">
         <v>18</v>
       </c>
       <c r="K316" t="s">
@@ -16087,7 +16177,7 @@
     </row>
     <row r="317" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B317" t="s">
         <v>18</v>
@@ -16130,7 +16220,7 @@
       <c r="C318" t="s">
         <v>18</v>
       </c>
-      <c r="F318" t="s">
+      <c r="H318" t="s">
         <v>18</v>
       </c>
       <c r="K318" t="s">
@@ -16168,10 +16258,10 @@
       <c r="C319" t="s">
         <v>25</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
         <v>26</v>
       </c>
-      <c r="F319" t="s">
+      <c r="H319" t="s">
         <v>18</v>
       </c>
       <c r="K319" t="s">
@@ -16209,7 +16299,7 @@
       <c r="C320" t="s">
         <v>25</v>
       </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
         <v>26</v>
       </c>
       <c r="K320" t="s">
@@ -16247,13 +16337,13 @@
       <c r="C321" t="s">
         <v>25</v>
       </c>
-      <c r="D321" t="s">
-        <v>26</v>
-      </c>
       <c r="E321" t="s">
         <v>26</v>
       </c>
       <c r="F321" t="s">
+        <v>26</v>
+      </c>
+      <c r="H321" t="s">
         <v>18</v>
       </c>
       <c r="K321" t="s">
@@ -16291,7 +16381,7 @@
       <c r="C322" t="s">
         <v>25</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>26</v>
       </c>
       <c r="K322" t="s">
@@ -16327,15 +16417,15 @@
         <v>25</v>
       </c>
       <c r="D323" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E323" t="s">
-        <v>25</v>
-      </c>
-      <c r="I323" t="s">
-        <v>26</v>
-      </c>
-      <c r="J323" t="s">
+        <v>18</v>
+      </c>
+      <c r="F323" t="s">
+        <v>25</v>
+      </c>
+      <c r="G323" t="s">
         <v>26</v>
       </c>
       <c r="K323" t="s">
@@ -16365,7 +16455,7 @@
     </row>
     <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C324" t="s">
         <v>18</v>
@@ -16383,21 +16473,21 @@
         <v>27</v>
       </c>
       <c r="O324" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="P324" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="Q324" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="R324" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C325" t="s">
         <v>18</v>
@@ -16418,26 +16508,26 @@
         <v>119</v>
       </c>
       <c r="P325" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="Q325" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="R325" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C326" t="s">
         <v>18</v>
       </c>
-      <c r="D326" t="s">
-        <v>18</v>
-      </c>
       <c r="E326" t="s">
+        <v>18</v>
+      </c>
+      <c r="F326" t="s">
         <v>18</v>
       </c>
       <c r="K326" t="s">
@@ -16499,7 +16589,7 @@
     </row>
     <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C328" t="s">
         <v>18</v>
@@ -16531,7 +16621,7 @@
     </row>
     <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C329" t="s">
         <v>18</v>
@@ -16563,7 +16653,7 @@
     </row>
     <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C330" t="s">
         <v>18</v>
@@ -16584,13 +16674,13 @@
         <v>119</v>
       </c>
       <c r="P330" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="Q330" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="R330" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="331" spans="1:18" x14ac:dyDescent="0.2">
@@ -16600,7 +16690,7 @@
       <c r="C331" t="s">
         <v>18</v>
       </c>
-      <c r="G331" t="s">
+      <c r="I331" t="s">
         <v>18</v>
       </c>
       <c r="K331" t="s">
@@ -16630,7 +16720,7 @@
     </row>
     <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C332" t="s">
         <v>18</v>
@@ -16662,7 +16752,7 @@
     </row>
     <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C333" t="s">
         <v>18</v>
@@ -16694,7 +16784,7 @@
     </row>
     <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C334" t="s">
         <v>18</v>
@@ -16731,13 +16821,13 @@
       <c r="C335" t="s">
         <v>26</v>
       </c>
-      <c r="D335" t="s">
-        <v>25</v>
-      </c>
       <c r="E335" t="s">
         <v>25</v>
       </c>
-      <c r="G335" t="s">
+      <c r="F335" t="s">
+        <v>25</v>
+      </c>
+      <c r="I335" t="s">
         <v>18</v>
       </c>
       <c r="K335" t="s">
@@ -16775,10 +16865,10 @@
       <c r="C336" t="s">
         <v>26</v>
       </c>
-      <c r="D336" t="s">
-        <v>25</v>
-      </c>
       <c r="E336" t="s">
+        <v>25</v>
+      </c>
+      <c r="F336" t="s">
         <v>26</v>
       </c>
       <c r="K336" t="s">
@@ -16814,15 +16904,15 @@
         <v>26</v>
       </c>
       <c r="D337" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E337" t="s">
-        <v>25</v>
-      </c>
-      <c r="I337" t="s">
-        <v>26</v>
-      </c>
-      <c r="J337" t="s">
+        <v>18</v>
+      </c>
+      <c r="F337" t="s">
+        <v>25</v>
+      </c>
+      <c r="G337" t="s">
         <v>26</v>
       </c>
       <c r="K337" t="s">
@@ -16861,13 +16951,13 @@
         <v>26</v>
       </c>
       <c r="D338" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E338" t="s">
         <v>25</v>
       </c>
-      <c r="I338" t="s">
-        <v>26</v>
+      <c r="F338" t="s">
+        <v>25</v>
       </c>
       <c r="K338" t="s">
         <v>563</v>
@@ -16902,15 +16992,15 @@
         <v>26</v>
       </c>
       <c r="D339" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E339" t="s">
-        <v>25</v>
-      </c>
-      <c r="I339" t="s">
-        <v>26</v>
-      </c>
-      <c r="J339" t="s">
+        <v>18</v>
+      </c>
+      <c r="F339" t="s">
+        <v>25</v>
+      </c>
+      <c r="G339" t="s">
         <v>26</v>
       </c>
       <c r="K339" t="s">
@@ -16946,15 +17036,15 @@
         <v>26</v>
       </c>
       <c r="D340" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E340" t="s">
-        <v>25</v>
-      </c>
-      <c r="I340" t="s">
-        <v>26</v>
-      </c>
-      <c r="J340" t="s">
+        <v>18</v>
+      </c>
+      <c r="F340" t="s">
+        <v>25</v>
+      </c>
+      <c r="G340" t="s">
         <v>26</v>
       </c>
       <c r="K340" t="s">
@@ -16984,12 +17074,12 @@
     </row>
     <row r="341" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>681</v>
-      </c>
-      <c r="D341" t="s">
-        <v>18</v>
+        <v>679</v>
       </c>
       <c r="E341" t="s">
+        <v>18</v>
+      </c>
+      <c r="F341" t="s">
         <v>18</v>
       </c>
       <c r="K341" t="s">
@@ -17019,9 +17109,12 @@
     </row>
     <row r="342" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>682</v>
-      </c>
-      <c r="D342" t="s">
+        <v>564</v>
+      </c>
+      <c r="E342" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" t="s">
         <v>18</v>
       </c>
       <c r="K342" t="s">
@@ -17037,24 +17130,21 @@
         <v>27</v>
       </c>
       <c r="O342" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="P342" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="Q342" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="R342" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
     </row>
     <row r="343" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>683</v>
-      </c>
-      <c r="D343" t="s">
-        <v>18</v>
+        <v>680</v>
       </c>
       <c r="E343" t="s">
         <v>18</v>
@@ -17066,34 +17156,34 @@
         <v>19</v>
       </c>
       <c r="M343" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N343" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O343" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P343" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="Q343" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="R343" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="344" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>684</v>
-      </c>
-      <c r="D344" t="s">
-        <v>18</v>
+        <v>681</v>
       </c>
       <c r="E344" t="s">
         <v>18</v>
       </c>
+      <c r="F344" t="s">
+        <v>18</v>
+      </c>
       <c r="K344" t="s">
         <v>18</v>
       </c>
@@ -17101,32 +17191,32 @@
         <v>19</v>
       </c>
       <c r="M344" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N344" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O344" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P344" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q344" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="R344" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="345" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>476</v>
-      </c>
-      <c r="D345" t="s">
-        <v>18</v>
+        <v>682</v>
       </c>
       <c r="E345" t="s">
+        <v>18</v>
+      </c>
+      <c r="F345" t="s">
         <v>18</v>
       </c>
       <c r="K345" t="s">
@@ -17145,20 +17235,23 @@
         <v>28</v>
       </c>
       <c r="P345" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="Q345" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="R345" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="346" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>685</v>
-      </c>
-      <c r="D346" t="s">
+        <v>476</v>
+      </c>
+      <c r="E346" t="s">
+        <v>18</v>
+      </c>
+      <c r="F346" t="s">
         <v>18</v>
       </c>
       <c r="K346" t="s">
@@ -17168,29 +17261,29 @@
         <v>19</v>
       </c>
       <c r="M346" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N346" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O346" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="P346" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="Q346" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="R346" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
     </row>
     <row r="347" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>686</v>
-      </c>
-      <c r="D347" t="s">
+        <v>683</v>
+      </c>
+      <c r="E347" t="s">
         <v>18</v>
       </c>
       <c r="K347" t="s">
@@ -17200,27 +17293,27 @@
         <v>19</v>
       </c>
       <c r="M347" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N347" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O347" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="P347" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Q347" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="R347" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="348" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>477</v>
+        <v>684</v>
       </c>
       <c r="D348" t="s">
         <v>18</v>
@@ -17241,23 +17334,26 @@
         <v>27</v>
       </c>
       <c r="O348" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="P348" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="Q348" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="R348" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
     </row>
     <row r="349" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>687</v>
-      </c>
-      <c r="D349" t="s">
+        <v>477</v>
+      </c>
+      <c r="E349" t="s">
+        <v>18</v>
+      </c>
+      <c r="F349" t="s">
         <v>18</v>
       </c>
       <c r="K349" t="s">
@@ -17267,27 +17363,27 @@
         <v>19</v>
       </c>
       <c r="M349" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N349" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O349" t="s">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="P349" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="Q349" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="R349" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
     </row>
     <row r="350" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D350" t="s">
         <v>18</v>
@@ -17302,34 +17398,34 @@
         <v>19</v>
       </c>
       <c r="M350" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N350" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O350" t="s">
-        <v>431</v>
+        <v>137</v>
       </c>
       <c r="P350" t="s">
-        <v>534</v>
+        <v>138</v>
       </c>
       <c r="Q350" t="s">
-        <v>534</v>
+        <v>139</v>
       </c>
       <c r="R350" t="s">
-        <v>534</v>
+        <v>139</v>
       </c>
     </row>
     <row r="351" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>689</v>
-      </c>
-      <c r="D351" t="s">
-        <v>18</v>
+        <v>686</v>
       </c>
       <c r="E351" t="s">
         <v>18</v>
       </c>
+      <c r="F351" t="s">
+        <v>18</v>
+      </c>
       <c r="K351" t="s">
         <v>18</v>
       </c>
@@ -17337,34 +17433,34 @@
         <v>19</v>
       </c>
       <c r="M351" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N351" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="O351" t="s">
-        <v>690</v>
+        <v>431</v>
       </c>
       <c r="P351" t="s">
-        <v>691</v>
+        <v>534</v>
       </c>
       <c r="Q351" t="s">
-        <v>692</v>
+        <v>534</v>
       </c>
       <c r="R351" t="s">
-        <v>692</v>
+        <v>534</v>
       </c>
     </row>
     <row r="352" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>693</v>
-      </c>
-      <c r="D352" t="s">
-        <v>18</v>
+        <v>687</v>
       </c>
       <c r="E352" t="s">
         <v>18</v>
       </c>
+      <c r="F352" t="s">
+        <v>18</v>
+      </c>
       <c r="K352" t="s">
         <v>18</v>
       </c>
@@ -17372,29 +17468,32 @@
         <v>19</v>
       </c>
       <c r="M352" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="N352" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O352" t="s">
-        <v>69</v>
+        <v>688</v>
       </c>
       <c r="P352" t="s">
-        <v>70</v>
+        <v>689</v>
       </c>
       <c r="Q352" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="R352" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="353" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>695</v>
-      </c>
-      <c r="D353" t="s">
+        <v>691</v>
+      </c>
+      <c r="E353" t="s">
+        <v>18</v>
+      </c>
+      <c r="F353" t="s">
         <v>18</v>
       </c>
       <c r="K353" t="s">
@@ -17404,30 +17503,27 @@
         <v>19</v>
       </c>
       <c r="M353" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="N353" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="O353" t="s">
-        <v>317</v>
+        <v>69</v>
       </c>
       <c r="P353" t="s">
-        <v>696</v>
+        <v>70</v>
       </c>
       <c r="Q353" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="R353" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="354" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>697</v>
-      </c>
-      <c r="D354" t="s">
-        <v>18</v>
+        <v>693</v>
       </c>
       <c r="E354" t="s">
         <v>18</v>
@@ -17439,29 +17535,29 @@
         <v>19</v>
       </c>
       <c r="M354" t="s">
-        <v>566</v>
+        <v>27</v>
       </c>
       <c r="N354" t="s">
-        <v>566</v>
+        <v>27</v>
       </c>
       <c r="O354" t="s">
-        <v>566</v>
+        <v>317</v>
       </c>
       <c r="P354" t="s">
-        <v>566</v>
+        <v>694</v>
       </c>
       <c r="Q354" t="s">
-        <v>566</v>
+        <v>694</v>
       </c>
       <c r="R354" t="s">
-        <v>566</v>
+        <v>694</v>
       </c>
     </row>
     <row r="355" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>565</v>
-      </c>
-      <c r="D355" t="s">
+        <v>695</v>
+      </c>
+      <c r="E355" t="s">
         <v>18</v>
       </c>
       <c r="F355" t="s">
@@ -17494,11 +17590,17 @@
     </row>
     <row r="356" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>698</v>
+        <v>565</v>
       </c>
       <c r="D356" t="s">
         <v>18</v>
       </c>
+      <c r="E356" t="s">
+        <v>18</v>
+      </c>
+      <c r="H356" t="s">
+        <v>18</v>
+      </c>
       <c r="K356" t="s">
         <v>18</v>
       </c>
@@ -17506,30 +17608,27 @@
         <v>19</v>
       </c>
       <c r="M356" t="s">
-        <v>27</v>
+        <v>566</v>
       </c>
       <c r="N356" t="s">
-        <v>27</v>
+        <v>566</v>
       </c>
       <c r="O356" t="s">
-        <v>395</v>
+        <v>566</v>
       </c>
       <c r="P356" t="s">
-        <v>396</v>
+        <v>566</v>
       </c>
       <c r="Q356" t="s">
-        <v>699</v>
+        <v>566</v>
       </c>
       <c r="R356" t="s">
-        <v>699</v>
+        <v>566</v>
       </c>
     </row>
     <row r="357" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>481</v>
-      </c>
-      <c r="D357" t="s">
-        <v>18</v>
+        <v>696</v>
       </c>
       <c r="E357" t="s">
         <v>18</v>
@@ -17547,21 +17646,21 @@
         <v>27</v>
       </c>
       <c r="O357" t="s">
-        <v>84</v>
+        <v>395</v>
       </c>
       <c r="P357" t="s">
-        <v>85</v>
+        <v>396</v>
       </c>
       <c r="Q357" t="s">
-        <v>363</v>
+        <v>697</v>
       </c>
       <c r="R357" t="s">
-        <v>363</v>
+        <v>697</v>
       </c>
     </row>
     <row r="358" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>700</v>
+        <v>481</v>
       </c>
       <c r="D358" t="s">
         <v>18</v>
@@ -17569,6 +17668,9 @@
       <c r="E358" t="s">
         <v>18</v>
       </c>
+      <c r="F358" t="s">
+        <v>18</v>
+      </c>
       <c r="K358" t="s">
         <v>18</v>
       </c>
@@ -17576,29 +17678,32 @@
         <v>19</v>
       </c>
       <c r="M358" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N358" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="O358" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="P358" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Q358" t="s">
-        <v>50</v>
+        <v>363</v>
       </c>
       <c r="R358" t="s">
-        <v>50</v>
+        <v>363</v>
       </c>
     </row>
     <row r="359" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>701</v>
-      </c>
-      <c r="D359" t="s">
+        <v>698</v>
+      </c>
+      <c r="E359" t="s">
+        <v>18</v>
+      </c>
+      <c r="F359" t="s">
         <v>18</v>
       </c>
       <c r="K359" t="s">
@@ -17608,29 +17713,29 @@
         <v>19</v>
       </c>
       <c r="M359" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N359" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O359" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P359" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="Q359" t="s">
-        <v>702</v>
+        <v>50</v>
       </c>
       <c r="R359" t="s">
-        <v>702</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>703</v>
-      </c>
-      <c r="D360" t="s">
+        <v>699</v>
+      </c>
+      <c r="E360" t="s">
         <v>18</v>
       </c>
       <c r="K360" t="s">
@@ -17640,32 +17745,29 @@
         <v>19</v>
       </c>
       <c r="M360" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="N360" t="s">
-        <v>331</v>
+        <v>37</v>
       </c>
       <c r="O360" t="s">
-        <v>332</v>
+        <v>38</v>
       </c>
       <c r="P360" t="s">
-        <v>333</v>
+        <v>39</v>
       </c>
       <c r="Q360" t="s">
-        <v>333</v>
+        <v>700</v>
       </c>
       <c r="R360" t="s">
-        <v>333</v>
+        <v>700</v>
       </c>
     </row>
     <row r="361" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>482</v>
-      </c>
-      <c r="D361" t="s">
-        <v>18</v>
-      </c>
-      <c r="H361" t="s">
+        <v>701</v>
+      </c>
+      <c r="E361" t="s">
         <v>18</v>
       </c>
       <c r="K361" t="s">
@@ -17675,34 +17777,34 @@
         <v>19</v>
       </c>
       <c r="M361" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="N361" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="O361" t="s">
-        <v>88</v>
+        <v>332</v>
       </c>
       <c r="P361" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="Q361" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="R361" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
     </row>
     <row r="362" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>704</v>
-      </c>
-      <c r="D362" t="s">
-        <v>18</v>
+        <v>482</v>
       </c>
       <c r="E362" t="s">
         <v>18</v>
       </c>
+      <c r="G362" t="s">
+        <v>18</v>
+      </c>
       <c r="K362" t="s">
         <v>18</v>
       </c>
@@ -17710,34 +17812,34 @@
         <v>19</v>
       </c>
       <c r="M362" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="N362" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="O362" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="P362" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="Q362" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
       <c r="R362" t="s">
-        <v>246</v>
+        <v>88</v>
       </c>
     </row>
     <row r="363" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>705</v>
-      </c>
-      <c r="D363" t="s">
-        <v>18</v>
+        <v>702</v>
       </c>
       <c r="E363" t="s">
         <v>18</v>
       </c>
+      <c r="F363" t="s">
+        <v>18</v>
+      </c>
       <c r="K363" t="s">
         <v>18</v>
       </c>
@@ -17745,29 +17847,32 @@
         <v>19</v>
       </c>
       <c r="M363" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="N363" t="s">
-        <v>48</v>
+        <v>243</v>
       </c>
       <c r="O363" t="s">
-        <v>706</v>
+        <v>244</v>
       </c>
       <c r="P363" t="s">
-        <v>706</v>
+        <v>245</v>
       </c>
       <c r="Q363" t="s">
-        <v>706</v>
+        <v>246</v>
       </c>
       <c r="R363" t="s">
-        <v>706</v>
+        <v>246</v>
       </c>
     </row>
     <row r="364" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>707</v>
-      </c>
-      <c r="D364" t="s">
+        <v>703</v>
+      </c>
+      <c r="E364" t="s">
+        <v>18</v>
+      </c>
+      <c r="F364" t="s">
         <v>18</v>
       </c>
       <c r="K364" t="s">
@@ -17783,23 +17888,23 @@
         <v>48</v>
       </c>
       <c r="O364" t="s">
-        <v>49</v>
+        <v>704</v>
       </c>
       <c r="P364" t="s">
-        <v>188</v>
+        <v>704</v>
       </c>
       <c r="Q364" t="s">
-        <v>189</v>
+        <v>704</v>
       </c>
       <c r="R364" t="s">
-        <v>189</v>
+        <v>704</v>
       </c>
     </row>
     <row r="365" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>708</v>
-      </c>
-      <c r="D365" t="s">
+        <v>705</v>
+      </c>
+      <c r="E365" t="s">
         <v>18</v>
       </c>
       <c r="K365" t="s">
@@ -17815,61 +17920,55 @@
         <v>48</v>
       </c>
       <c r="O365" t="s">
-        <v>414</v>
+        <v>49</v>
       </c>
       <c r="P365" t="s">
-        <v>709</v>
+        <v>188</v>
       </c>
       <c r="Q365" t="s">
-        <v>710</v>
+        <v>189</v>
       </c>
       <c r="R365" t="s">
-        <v>710</v>
+        <v>189</v>
       </c>
     </row>
     <row r="366" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>587</v>
-      </c>
-      <c r="D366" t="s">
-        <v>18</v>
-      </c>
-      <c r="H366" t="s">
+        <v>706</v>
+      </c>
+      <c r="E366" t="s">
         <v>18</v>
       </c>
       <c r="K366" t="s">
         <v>18</v>
       </c>
       <c r="L366" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="M366" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="N366" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="O366" t="s">
-        <v>154</v>
+        <v>414</v>
       </c>
       <c r="P366" t="s">
-        <v>154</v>
+        <v>707</v>
       </c>
       <c r="Q366" t="s">
-        <v>154</v>
+        <v>708</v>
       </c>
       <c r="R366" t="s">
-        <v>154</v>
+        <v>708</v>
       </c>
     </row>
     <row r="367" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>483</v>
-      </c>
-      <c r="D367" t="s">
-        <v>18</v>
-      </c>
-      <c r="F367" t="s">
+        <v>586</v>
+      </c>
+      <c r="E367" t="s">
         <v>18</v>
       </c>
       <c r="K367" t="s">
@@ -17879,67 +17978,67 @@
         <v>151</v>
       </c>
       <c r="M367" t="s">
-        <v>484</v>
+        <v>152</v>
       </c>
       <c r="N367" t="s">
-        <v>485</v>
+        <v>153</v>
       </c>
       <c r="O367" t="s">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="P367" t="s">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="Q367" t="s">
-        <v>486</v>
+        <v>154</v>
       </c>
       <c r="R367" t="s">
-        <v>486</v>
+        <v>154</v>
       </c>
     </row>
     <row r="368" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>487</v>
-      </c>
-      <c r="D368" t="s">
-        <v>18</v>
-      </c>
-      <c r="F368" t="s">
+        <v>483</v>
+      </c>
+      <c r="E368" t="s">
+        <v>18</v>
+      </c>
+      <c r="H368" t="s">
         <v>18</v>
       </c>
       <c r="K368" t="s">
         <v>18</v>
       </c>
       <c r="L368" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="M368" t="s">
-        <v>27</v>
+        <v>484</v>
       </c>
       <c r="N368" t="s">
-        <v>27</v>
+        <v>485</v>
       </c>
       <c r="O368" t="s">
-        <v>27</v>
+        <v>486</v>
       </c>
       <c r="P368" t="s">
-        <v>27</v>
+        <v>486</v>
       </c>
       <c r="Q368" t="s">
-        <v>27</v>
+        <v>486</v>
       </c>
       <c r="R368" t="s">
-        <v>27</v>
+        <v>486</v>
       </c>
     </row>
     <row r="369" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>488</v>
-      </c>
-      <c r="D369" t="s">
-        <v>18</v>
-      </c>
-      <c r="F369" t="s">
+        <v>487</v>
+      </c>
+      <c r="E369" t="s">
+        <v>18</v>
+      </c>
+      <c r="H369" t="s">
         <v>18</v>
       </c>
       <c r="K369" t="s">
@@ -17949,32 +18048,32 @@
         <v>19</v>
       </c>
       <c r="M369" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N369" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="O369" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="P369" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="Q369" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="R369" t="s">
-        <v>489</v>
+        <v>27</v>
       </c>
     </row>
     <row r="370" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>490</v>
-      </c>
-      <c r="D370" t="s">
-        <v>18</v>
-      </c>
-      <c r="F370" t="s">
+        <v>488</v>
+      </c>
+      <c r="E370" t="s">
+        <v>18</v>
+      </c>
+      <c r="H370" t="s">
         <v>18</v>
       </c>
       <c r="K370" t="s">
@@ -17984,32 +18083,32 @@
         <v>19</v>
       </c>
       <c r="M370" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="N370" t="s">
-        <v>491</v>
+        <v>37</v>
       </c>
       <c r="O370" t="s">
-        <v>491</v>
+        <v>137</v>
       </c>
       <c r="P370" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q370" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="R370" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="371" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>492</v>
-      </c>
-      <c r="D371" t="s">
-        <v>18</v>
-      </c>
-      <c r="F371" t="s">
+        <v>490</v>
+      </c>
+      <c r="E371" t="s">
+        <v>18</v>
+      </c>
+      <c r="H371" t="s">
         <v>18</v>
       </c>
       <c r="K371" t="s">
@@ -18019,27 +18118,27 @@
         <v>19</v>
       </c>
       <c r="M371" t="s">
-        <v>48</v>
+        <v>263</v>
       </c>
       <c r="N371" t="s">
-        <v>48</v>
+        <v>491</v>
       </c>
       <c r="O371" t="s">
-        <v>49</v>
+        <v>491</v>
       </c>
       <c r="P371" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="Q371" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="R371" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="372" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>582</v>
+        <v>492</v>
       </c>
       <c r="E372" t="s">
         <v>18</v>
@@ -18063,65 +18162,65 @@
         <v>49</v>
       </c>
       <c r="P372" t="s">
-        <v>571</v>
+        <v>493</v>
       </c>
       <c r="Q372" t="s">
-        <v>572</v>
+        <v>494</v>
       </c>
       <c r="R372" t="s">
-        <v>583</v>
+        <v>494</v>
       </c>
     </row>
     <row r="373" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>543</v>
-      </c>
-      <c r="B373" t="s">
-        <v>26</v>
-      </c>
-      <c r="C373" t="s">
-        <v>26</v>
-      </c>
-      <c r="D373" t="s">
-        <v>26</v>
-      </c>
-      <c r="E373" t="s">
-        <v>25</v>
+        <v>582</v>
+      </c>
+      <c r="F373" t="s">
+        <v>18</v>
       </c>
       <c r="K373" t="s">
-        <v>563</v>
+        <v>18</v>
       </c>
       <c r="L373" t="s">
         <v>19</v>
       </c>
       <c r="M373" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N373" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O373" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P373" t="s">
-        <v>93</v>
+        <v>571</v>
       </c>
       <c r="Q373" t="s">
-        <v>93</v>
+        <v>572</v>
       </c>
       <c r="R373" t="s">
-        <v>93</v>
+        <v>583</v>
       </c>
     </row>
     <row r="374" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>495</v>
+        <v>543</v>
+      </c>
+      <c r="B374" t="s">
+        <v>26</v>
+      </c>
+      <c r="C374" t="s">
+        <v>26</v>
       </c>
       <c r="E374" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="F374" t="s">
+        <v>25</v>
       </c>
       <c r="K374" t="s">
-        <v>18</v>
+        <v>563</v>
       </c>
       <c r="L374" t="s">
         <v>19</v>
@@ -18133,23 +18232,23 @@
         <v>37</v>
       </c>
       <c r="O374" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="P374" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="Q374" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="R374" t="s">
-        <v>221</v>
+        <v>93</v>
       </c>
     </row>
     <row r="375" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>711</v>
-      </c>
-      <c r="E375" t="s">
+        <v>495</v>
+      </c>
+      <c r="F375" t="s">
         <v>18</v>
       </c>
       <c r="K375" t="s">
@@ -18159,29 +18258,29 @@
         <v>19</v>
       </c>
       <c r="M375" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N375" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O375" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="P375" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="Q375" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="R375" t="s">
-        <v>337</v>
+        <v>221</v>
       </c>
     </row>
     <row r="376" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>712</v>
-      </c>
-      <c r="E376" t="s">
+        <v>709</v>
+      </c>
+      <c r="F376" t="s">
         <v>18</v>
       </c>
       <c r="K376" t="s">
@@ -18191,27 +18290,27 @@
         <v>19</v>
       </c>
       <c r="M376" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="N376" t="s">
-        <v>279</v>
+        <v>27</v>
       </c>
       <c r="O376" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="P376" t="s">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="Q376" t="s">
-        <v>713</v>
+        <v>336</v>
       </c>
       <c r="R376" t="s">
-        <v>713</v>
+        <v>337</v>
       </c>
     </row>
     <row r="377" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>564</v>
+        <v>710</v>
       </c>
       <c r="F377" t="s">
         <v>18</v>
@@ -18223,29 +18322,32 @@
         <v>19</v>
       </c>
       <c r="M377" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="N377" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="O377" t="s">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c r="P377" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="Q377" t="s">
-        <v>85</v>
+        <v>711</v>
       </c>
       <c r="R377" t="s">
-        <v>85</v>
+        <v>711</v>
       </c>
     </row>
     <row r="378" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>567</v>
-      </c>
-      <c r="F378" t="s">
+        <v>584</v>
+      </c>
+      <c r="G378" t="s">
+        <v>18</v>
+      </c>
+      <c r="J378" t="s">
         <v>18</v>
       </c>
       <c r="K378" t="s">
@@ -18255,32 +18357,35 @@
         <v>19</v>
       </c>
       <c r="M378" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="N378" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O378" t="s">
-        <v>317</v>
+        <v>49</v>
       </c>
       <c r="P378" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="Q378" t="s">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="R378" t="s">
-        <v>504</v>
+        <v>585</v>
       </c>
     </row>
     <row r="379" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>570</v>
       </c>
-      <c r="G379" t="s">
-        <v>18</v>
-      </c>
-      <c r="H379" t="s">
+      <c r="D379" t="s">
+        <v>18</v>
+      </c>
+      <c r="I379" t="s">
+        <v>18</v>
+      </c>
+      <c r="J379" t="s">
         <v>18</v>
       </c>
       <c r="K379" t="s">
@@ -18310,9 +18415,9 @@
     </row>
     <row r="380" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>575</v>
-      </c>
-      <c r="G380" t="s">
+        <v>712</v>
+      </c>
+      <c r="D380" t="s">
         <v>18</v>
       </c>
       <c r="K380" t="s">
@@ -18328,23 +18433,23 @@
         <v>48</v>
       </c>
       <c r="O380" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="P380" t="s">
-        <v>576</v>
+        <v>232</v>
       </c>
       <c r="Q380" t="s">
-        <v>577</v>
+        <v>381</v>
       </c>
       <c r="R380" t="s">
-        <v>578</v>
+        <v>381</v>
       </c>
     </row>
     <row r="381" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>584</v>
-      </c>
-      <c r="H381" t="s">
+        <v>713</v>
+      </c>
+      <c r="D381" t="s">
         <v>18</v>
       </c>
       <c r="K381" t="s">
@@ -18354,27 +18459,27 @@
         <v>19</v>
       </c>
       <c r="M381" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="N381" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="O381" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="P381" t="s">
-        <v>571</v>
+        <v>27</v>
       </c>
       <c r="Q381" t="s">
-        <v>572</v>
+        <v>27</v>
       </c>
       <c r="R381" t="s">
-        <v>585</v>
+        <v>27</v>
       </c>
     </row>
     <row r="382" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
       <c r="H382" t="s">
         <v>18</v>
@@ -18392,23 +18497,23 @@
         <v>27</v>
       </c>
       <c r="O382" t="s">
-        <v>28</v>
+        <v>317</v>
       </c>
       <c r="P382" t="s">
-        <v>55</v>
+        <v>504</v>
       </c>
       <c r="Q382" t="s">
-        <v>55</v>
+        <v>504</v>
       </c>
       <c r="R382" t="s">
-        <v>55</v>
+        <v>504</v>
       </c>
     </row>
     <row r="383" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>588</v>
-      </c>
-      <c r="H383" t="s">
+        <v>575</v>
+      </c>
+      <c r="I383" t="s">
         <v>18</v>
       </c>
       <c r="K383" t="s">
@@ -18418,22 +18523,22 @@
         <v>19</v>
       </c>
       <c r="M383" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="N383" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O383" t="s">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="P383" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="Q383" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="R383" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="384" spans="1:18" x14ac:dyDescent="0.2">
@@ -18446,13 +18551,13 @@
       <c r="C384" t="s">
         <v>26</v>
       </c>
-      <c r="E384" t="s">
+      <c r="D384" t="s">
         <v>26</v>
       </c>
-      <c r="I384" t="s">
+      <c r="F384" t="s">
         <v>26</v>
       </c>
-      <c r="J384" t="s">
+      <c r="G384" t="s">
         <v>26</v>
       </c>
       <c r="K384" t="s">
@@ -18487,10 +18592,10 @@
       <c r="C385" t="s">
         <v>26</v>
       </c>
-      <c r="E385" t="s">
+      <c r="D385" t="s">
         <v>26</v>
       </c>
-      <c r="I385" t="s">
+      <c r="F385" t="s">
         <v>26</v>
       </c>
       <c r="K385" t="s">
@@ -18525,7 +18630,7 @@
       <c r="C386" t="s">
         <v>26</v>
       </c>
-      <c r="I386" t="s">
+      <c r="D386" t="s">
         <v>26</v>
       </c>
       <c r="K386" t="s">
@@ -18560,7 +18665,7 @@
       <c r="C387" t="s">
         <v>26</v>
       </c>
-      <c r="I387" t="s">
+      <c r="D387" t="s">
         <v>26</v>
       </c>
       <c r="K387" t="s">
@@ -18598,7 +18703,7 @@
       <c r="C388" t="s">
         <v>26</v>
       </c>
-      <c r="E388" t="s">
+      <c r="F388" t="s">
         <v>26</v>
       </c>
       <c r="K388" t="s">
@@ -18633,10 +18738,10 @@
       <c r="C389" t="s">
         <v>26</v>
       </c>
-      <c r="E389" t="s">
+      <c r="D389" t="s">
         <v>26</v>
       </c>
-      <c r="I389" t="s">
+      <c r="F389" t="s">
         <v>26</v>
       </c>
       <c r="K389" t="s">
@@ -18671,7 +18776,7 @@
       <c r="C390" t="s">
         <v>26</v>
       </c>
-      <c r="E390" t="s">
+      <c r="F390" t="s">
         <v>26</v>
       </c>
       <c r="K390" t="s">
@@ -18706,7 +18811,7 @@
       <c r="C391" t="s">
         <v>26</v>
       </c>
-      <c r="I391" t="s">
+      <c r="D391" t="s">
         <v>26</v>
       </c>
       <c r="K391" t="s">
@@ -18738,10 +18843,10 @@
       <c r="A392" t="s">
         <v>551</v>
       </c>
-      <c r="E392" t="s">
+      <c r="F392" t="s">
         <v>26</v>
       </c>
-      <c r="J392" t="s">
+      <c r="G392" t="s">
         <v>26</v>
       </c>
       <c r="K392" t="s">
@@ -18773,10 +18878,10 @@
       <c r="A393" t="s">
         <v>555</v>
       </c>
-      <c r="E393" t="s">
+      <c r="F393" t="s">
         <v>26</v>
       </c>
-      <c r="J393" t="s">
+      <c r="G393" t="s">
         <v>26</v>
       </c>
       <c r="K393" t="s">
@@ -18808,7 +18913,7 @@
       <c r="A394" t="s">
         <v>556</v>
       </c>
-      <c r="J394" t="s">
+      <c r="G394" t="s">
         <v>26</v>
       </c>
       <c r="K394" t="s">
@@ -18840,7 +18945,7 @@
       <c r="A395" t="s">
         <v>557</v>
       </c>
-      <c r="E395" t="s">
+      <c r="F395" t="s">
         <v>26</v>
       </c>
       <c r="K395" t="s">
@@ -18872,10 +18977,10 @@
       <c r="A396" t="s">
         <v>558</v>
       </c>
-      <c r="D396" t="s">
+      <c r="E396" t="s">
         <v>26</v>
       </c>
-      <c r="E396" t="s">
+      <c r="F396" t="s">
         <v>26</v>
       </c>
       <c r="K396" t="s">
@@ -18907,7 +19012,7 @@
       <c r="A397" t="s">
         <v>559</v>
       </c>
-      <c r="E397" t="s">
+      <c r="F397" t="s">
         <v>26</v>
       </c>
       <c r="K397" t="s">
@@ -18939,7 +19044,7 @@
       <c r="A398" t="s">
         <v>560</v>
       </c>
-      <c r="E398" t="s">
+      <c r="F398" t="s">
         <v>26</v>
       </c>
       <c r="K398" t="s">
@@ -18964,6 +19069,38 @@
         <v>80</v>
       </c>
       <c r="R398" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="399" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>560</v>
+      </c>
+      <c r="F399" t="s">
+        <v>26</v>
+      </c>
+      <c r="K399" t="s">
+        <v>26</v>
+      </c>
+      <c r="L399" t="s">
+        <v>19</v>
+      </c>
+      <c r="M399" t="s">
+        <v>36</v>
+      </c>
+      <c r="N399" t="s">
+        <v>37</v>
+      </c>
+      <c r="O399" t="s">
+        <v>38</v>
+      </c>
+      <c r="P399" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>80</v>
+      </c>
+      <c r="R399" t="s">
         <v>80</v>
       </c>
     </row>
